--- a/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
+++ b/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_Irish-TIMES-model\TRA_Update\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53A5F7-45E0-4011-B14C-DB9C7255883F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED3984-06D4-44E7-8792-CE6D2E76CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="15" r:id="rId1"/>
@@ -605,14 +605,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="???,???.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,63 +671,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="161"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -761,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,17 +762,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis"/>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -900,21 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -929,56 +845,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="3" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="4" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1018,55 +887,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="5x indented GHG Textfiels" xfId="3" xr:uid="{E5438AA9-EDDF-42F5-9D69-701C3DD08A5D}"/>
-    <cellStyle name="Bold GHG Numbers (0.00)" xfId="4" xr:uid="{1BEE9676-6E46-40E7-BA7F-F40F1D25E4FE}"/>
-    <cellStyle name="Comma 2" xfId="6" xr:uid="{149C1DF0-4DB8-4BA3-9F14-17089C535984}"/>
-    <cellStyle name="Comma 3" xfId="5" xr:uid="{97A9AB97-5E95-4355-8F88-B1961746992C}"/>
-    <cellStyle name="Comma 4" xfId="1" xr:uid="{31F61CB3-7B7E-47B8-BE24-A771FC0D756A}"/>
-    <cellStyle name="Headline" xfId="7" xr:uid="{B3F9B8D8-0333-4125-83A5-688FFDE99F01}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{5E3BD857-C578-460D-874E-CDFA7EC6675F}"/>
-    <cellStyle name="Normal 3" xfId="9" xr:uid="{72AAAE74-F91C-46A8-B709-D46AF30F8BC8}"/>
-    <cellStyle name="Normal 4" xfId="10" xr:uid="{B60FE7D5-E34D-44A8-96EC-DFC4FB40148C}"/>
-    <cellStyle name="Normal 5" xfId="11" xr:uid="{A8069D8B-A5BD-4BA1-A854-6C576429DDAF}"/>
-    <cellStyle name="Normal 6" xfId="12" xr:uid="{630441F1-8191-4958-BF98-BB8E2B7BA298}"/>
-    <cellStyle name="Normal 7" xfId="13" xr:uid="{82A87F47-B886-44F7-87B4-67D94553CCCF}"/>
-    <cellStyle name="Normal 8" xfId="2" xr:uid="{774BD0A8-2064-4558-8755-F43ED262FC96}"/>
-    <cellStyle name="Normal GHG Numbers (0.00)" xfId="14" xr:uid="{E48281A4-9A99-4702-B05B-E6E273CF125D}"/>
-    <cellStyle name="Normal GHG whole table" xfId="15" xr:uid="{A084E217-3E32-4238-912C-FF701D10A8A8}"/>
-    <cellStyle name="Normal GHG-Shade" xfId="16" xr:uid="{0898F5FF-8D38-48FD-87FA-7268666E8409}"/>
-    <cellStyle name="Pattern" xfId="17" xr:uid="{0D5B150E-3B6C-4A5A-A5EA-32BD2469408E}"/>
-    <cellStyle name="Percent 2" xfId="19" xr:uid="{28693B0F-038E-41F7-9ECD-66AB55D0EA76}"/>
-    <cellStyle name="Percent 3" xfId="18" xr:uid="{7D260FB5-06D3-4C30-BC40-DBC9663444F4}"/>
-    <cellStyle name="Standard_FI00EU01" xfId="20" xr:uid="{7075647E-39F3-496F-911D-77902BA1AEFD}"/>
-    <cellStyle name="Year" xfId="21" xr:uid="{D73990B7-9840-4390-B5A8-197D45A8C3AC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,7 +946,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1476,40 +1324,40 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="15"/>
+    <col min="29" max="29" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -1623,12 +1471,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
@@ -1743,7 +1591,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
@@ -1860,7 +1708,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -1977,7 +1825,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
@@ -1985,7 +1833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>66</v>
       </c>
@@ -1993,7 +1841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -2001,7 +1849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
@@ -2009,7 +1857,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -2017,7 +1865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
@@ -2025,7 +1873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>71</v>
       </c>
@@ -2033,7 +1881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>72</v>
       </c>
@@ -2041,7 +1889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>73</v>
       </c>
@@ -2049,7 +1897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>74</v>
       </c>
@@ -2057,7 +1905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>75</v>
       </c>
@@ -2065,7 +1913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>76</v>
       </c>
@@ -2073,7 +1921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +1929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>78</v>
       </c>
@@ -2089,7 +1937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>79</v>
       </c>
@@ -2097,7 +1945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>80</v>
       </c>
@@ -2105,7 +1953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>81</v>
       </c>
@@ -2113,7 +1961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>82</v>
       </c>
@@ -2121,7 +1969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>83</v>
       </c>
@@ -2129,7 +1977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>84</v>
       </c>
@@ -2137,7 +1985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
@@ -2145,7 +1993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>86</v>
       </c>
@@ -2153,7 +2001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>87</v>
       </c>
@@ -2161,7 +2009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>88</v>
       </c>
@@ -2169,7 +2017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>89</v>
       </c>
@@ -2177,7 +2025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>90</v>
       </c>
@@ -2185,7 +2033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>91</v>
       </c>
@@ -2193,7 +2041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>92</v>
       </c>
@@ -2219,7 +2067,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -2243,21 +2091,21 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
-    <col min="8" max="31" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="15" customWidth="1"/>
+    <col min="8" max="31" width="7.140625" customWidth="1"/>
     <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
@@ -2294,7 +2142,7 @@
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2151,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
     </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -2551,7 +2399,7 @@
       </c>
       <c r="AG5" s="15"/>
     </row>
-    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
@@ -2670,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>94</v>
       </c>
@@ -2789,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
@@ -2908,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>94</v>
       </c>
@@ -3027,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>94</v>
       </c>
@@ -3146,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>94</v>
       </c>
@@ -3265,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>94</v>
       </c>
@@ -3384,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>94</v>
       </c>
@@ -3503,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
@@ -3622,7 +3470,7 @@
         <v>0.97817172107331274</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>94</v>
       </c>
@@ -3742,7 +3590,7 @@
       </c>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -3861,7 +3709,7 @@
         <v>0.83185402303734834</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -3980,7 +3828,7 @@
         <v>0.73189170208617194</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -4099,7 +3947,7 @@
         <v>0.62121577779185166</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -4218,7 +4066,7 @@
         <v>0.50753665598451725</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -4337,7 +4185,7 @@
         <v>0.38939050015936671</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -4456,7 +4304,7 @@
         <v>0.288467577478426</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -4575,7 +4423,7 @@
         <v>0.21370203747193298</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>94</v>
       </c>
@@ -4694,7 +4542,7 @@
         <v>0.1583143631560151</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>94</v>
       </c>
@@ -4813,7 +4661,7 @@
         <v>0.11728216482159834</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>95</v>
       </c>
@@ -4938,7 +4786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>95</v>
       </c>
@@ -5064,7 +4912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>95</v>
       </c>
@@ -5190,7 +5038,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -5223,7 +5071,7 @@
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
     </row>
-    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -5256,7 +5104,7 @@
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
     </row>
-    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -5289,7 +5137,7 @@
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
     </row>
-    <row r="31" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>105</v>
       </c>
@@ -5327,7 +5175,7 @@
       <c r="AG31" s="38"/>
       <c r="AH31" s="38"/>
     </row>
-    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -5360,7 +5208,7 @@
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
     </row>
-    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -5368,7 +5216,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>94</v>
       </c>
@@ -5615,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>94</v>
       </c>
@@ -5734,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>94</v>
       </c>
@@ -5853,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>94</v>
       </c>
@@ -5972,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>94</v>
       </c>
@@ -6091,7 +5939,7 @@
         <v>0.94791311868018946</v>
       </c>
     </row>
-    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
         <v>94</v>
       </c>
@@ -6210,7 +6058,7 @@
         <v>0.9060850775490854</v>
       </c>
     </row>
-    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
         <v>94</v>
       </c>
@@ -6329,7 +6177,7 @@
         <v>0.91435706526982952</v>
       </c>
     </row>
-    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>94</v>
       </c>
@@ -6448,7 +6296,7 @@
         <v>0.86882412861909741</v>
       </c>
     </row>
-    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>94</v>
       </c>
@@ -6567,7 +6415,7 @@
         <v>0.82922695299454818</v>
       </c>
     </row>
-    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>94</v>
       </c>
@@ -6686,7 +6534,7 @@
         <v>0.79879829337168895</v>
       </c>
     </row>
-    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
@@ -6805,7 +6653,7 @@
         <v>0.77410832278704111</v>
       </c>
     </row>
-    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
         <v>94</v>
       </c>
@@ -6924,7 +6772,7 @@
         <v>0.75463213805523366</v>
       </c>
     </row>
-    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
         <v>94</v>
       </c>
@@ -7043,7 +6891,7 @@
         <v>0.73291243695362795</v>
       </c>
     </row>
-    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>94</v>
       </c>
@@ -7162,7 +7010,7 @@
         <v>0.66679740354677275</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>94</v>
       </c>
@@ -7281,7 +7129,7 @@
         <v>0.64133899762258684</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
         <v>94</v>
       </c>
@@ -7400,7 +7248,7 @@
         <v>0.5857178420628868</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>94</v>
       </c>
@@ -7519,7 +7367,7 @@
         <v>0.57182695902647174</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
         <v>94</v>
       </c>
@@ -7638,7 +7486,7 @@
         <v>0.43476309517427986</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>94</v>
       </c>
@@ -7757,7 +7605,7 @@
         <v>0.41274159714086933</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>94</v>
       </c>
@@ -7876,7 +7724,7 @@
         <v>0.40009682595636675</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
         <v>95</v>
       </c>
@@ -8000,7 +7848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
         <v>95</v>
       </c>
@@ -8125,7 +7973,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>95</v>
       </c>
@@ -8251,7 +8099,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -8284,7 +8132,7 @@
       <c r="AE58" s="35"/>
       <c r="AF58" s="35"/>
     </row>
-    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
@@ -8317,7 +8165,7 @@
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
     </row>
-    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
@@ -8350,7 +8198,7 @@
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
     </row>
-    <row r="61" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>109</v>
       </c>
@@ -8388,7 +8236,7 @@
       <c r="AG61" s="38"/>
       <c r="AH61" s="38"/>
     </row>
-    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
@@ -8421,14 +8269,14 @@
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
     </row>
-    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>11</v>
       </c>
@@ -8556,7 +8404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="32" t="s">
         <v>94</v>
       </c>
@@ -8675,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
         <v>94</v>
       </c>
@@ -8794,7 +8642,7 @@
         <v>0.9800667360906824</v>
       </c>
     </row>
-    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="32" t="s">
         <v>94</v>
       </c>
@@ -8913,7 +8761,7 @@
         <v>0.9497470049426342</v>
       </c>
     </row>
-    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>94</v>
       </c>
@@ -9032,7 +8880,7 @@
         <v>0.90306898283260173</v>
       </c>
     </row>
-    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
         <v>94</v>
       </c>
@@ -9151,7 +8999,7 @@
         <v>0.86715175935853817</v>
       </c>
     </row>
-    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>94</v>
       </c>
@@ -9270,7 +9118,7 @@
         <v>0.83870839876337333</v>
       </c>
     </row>
-    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
         <v>94</v>
       </c>
@@ -9389,7 +9237,7 @@
         <v>0.79860750405892778</v>
       </c>
     </row>
-    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="32" t="s">
         <v>94</v>
       </c>
@@ -9508,7 +9356,7 @@
         <v>0.7511806224131885</v>
       </c>
     </row>
-    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
         <v>94</v>
       </c>
@@ -9627,7 +9475,7 @@
         <v>0.69653100220097497</v>
       </c>
     </row>
-    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="32" t="s">
         <v>94</v>
       </c>
@@ -9746,7 +9594,7 @@
         <v>0.62902859094617636</v>
       </c>
     </row>
-    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="32" t="s">
         <v>94</v>
       </c>
@@ -9865,7 +9713,7 @@
         <v>0.55432706683831479</v>
       </c>
     </row>
-    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="32" t="s">
         <v>94</v>
       </c>
@@ -9984,7 +9832,7 @@
         <v>0.48050397200271588</v>
       </c>
     </row>
-    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
         <v>94</v>
       </c>
@@ -10103,7 +9951,7 @@
         <v>0.40170806551059934</v>
       </c>
     </row>
-    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32" t="s">
         <v>94</v>
       </c>
@@ -10222,7 +10070,7 @@
         <v>0.32931880209238984</v>
       </c>
     </row>
-    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="32" t="s">
         <v>94</v>
       </c>
@@ -10341,7 +10189,7 @@
         <v>0.26434993477403756</v>
       </c>
     </row>
-    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
         <v>95</v>
       </c>
@@ -10465,7 +10313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="32" t="s">
         <v>95</v>
       </c>
@@ -10590,7 +10438,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="17" t="s">
         <v>95</v>
       </c>
@@ -10716,7 +10564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -10749,7 +10597,7 @@
       <c r="AE83" s="35"/>
       <c r="AF83" s="35"/>
     </row>
-    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -10782,7 +10630,7 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
@@ -10815,7 +10663,7 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>111</v>
       </c>
@@ -10853,7 +10701,7 @@
       <c r="AG86" s="38"/>
       <c r="AH86" s="38"/>
     </row>
-    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
@@ -10886,14 +10734,14 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -11021,7 +10869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32" t="s">
         <v>94</v>
       </c>
@@ -11140,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="32" t="s">
         <v>94</v>
       </c>
@@ -11259,7 +11107,7 @@
         <v>0.98529141679235754</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="32" t="s">
         <v>94</v>
       </c>
@@ -11378,7 +11226,7 @@
         <v>0.93352234155599045</v>
       </c>
     </row>
-    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32" t="s">
         <v>94</v>
       </c>
@@ -11497,7 +11345,7 @@
         <v>0.86853044848171546</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="32" t="s">
         <v>94</v>
       </c>
@@ -11616,7 +11464,7 @@
         <v>0.80912695485417574</v>
       </c>
     </row>
-    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="32" t="s">
         <v>94</v>
       </c>
@@ -11735,7 +11583,7 @@
         <v>0.74663612868686757</v>
       </c>
     </row>
-    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32" t="s">
         <v>94</v>
       </c>
@@ -11854,7 +11702,7 @@
         <v>0.68748310495340637</v>
       </c>
     </row>
-    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="32" t="s">
         <v>94</v>
       </c>
@@ -11973,7 +11821,7 @@
         <v>0.62348824545899562</v>
       </c>
     </row>
-    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="32" t="s">
         <v>94</v>
       </c>
@@ -12092,7 +11940,7 @@
         <v>0.55224298141356309</v>
       </c>
     </row>
-    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
         <v>94</v>
       </c>
@@ -12211,7 +12059,7 @@
         <v>0.47617464080799254</v>
       </c>
     </row>
-    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32" t="s">
         <v>94</v>
       </c>
@@ -12330,7 +12178,7 @@
         <v>0.39917052340536635</v>
       </c>
     </row>
-    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32" t="s">
         <v>94</v>
       </c>
@@ -12449,7 +12297,7 @@
         <v>0.33335379569397006</v>
       </c>
     </row>
-    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32" t="s">
         <v>94</v>
       </c>
@@ -12568,7 +12416,7 @@
         <v>0.27182645076790246</v>
       </c>
     </row>
-    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="32" t="s">
         <v>94</v>
       </c>
@@ -12687,7 +12535,7 @@
         <v>0.22234613200547687</v>
       </c>
     </row>
-    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="32" t="s">
         <v>94</v>
       </c>
@@ -12806,7 +12654,7 @@
         <v>0.17649556942575553</v>
       </c>
     </row>
-    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32" t="s">
         <v>95</v>
       </c>
@@ -12930,7 +12778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32" t="s">
         <v>95</v>
       </c>
@@ -13055,7 +12903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="17" t="s">
         <v>95</v>
       </c>
@@ -13181,7 +13029,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
@@ -13214,7 +13062,7 @@
       <c r="AE108" s="35"/>
       <c r="AF108" s="35"/>
     </row>
-    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
@@ -13247,12 +13095,12 @@
       <c r="AE109" s="35"/>
       <c r="AF109" s="35"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>16</v>
       </c>
@@ -13260,7 +13108,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
@@ -13388,7 +13236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>96</v>
       </c>
@@ -13488,7 +13336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="32" t="s">
         <v>96</v>
       </c>
@@ -13587,7 +13435,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="32" t="s">
         <v>96</v>
       </c>
@@ -13686,7 +13534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="17" t="s">
         <v>96</v>
       </c>
@@ -13786,16 +13634,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V119" s="15"/>
     </row>
-    <row r="120" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V120" s="15"/>
     </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V121" s="15"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="15"/>
     </row>
   </sheetData>
@@ -13806,18 +13654,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8C5379-8622-4855-B8BF-95147E08A02B}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>102</v>
       </c>
@@ -13825,7 +13674,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="33" t="s">
         <v>97</v>
@@ -13840,7 +13689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="30">
         <v>1</v>
       </c>
@@ -13857,7 +13706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -13875,7 +13724,7 @@
         <v>98.52914167923575</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="30">
         <v>3</v>
       </c>
@@ -13893,7 +13742,7 @@
         <v>93.352234155599049</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -13911,7 +13760,7 @@
         <v>86.85304484817155</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -13929,7 +13778,7 @@
         <v>80.912695485417572</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
         <v>6</v>
       </c>
@@ -13947,7 +13796,7 @@
         <v>74.663612868686755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>7</v>
       </c>
@@ -13965,7 +13814,7 @@
         <v>68.748310495340633</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
         <v>8</v>
       </c>
@@ -13983,7 +13832,7 @@
         <v>62.348824545899561</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="30">
         <v>9</v>
       </c>
@@ -14001,7 +13850,7 @@
         <v>55.224298141356314</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30">
         <v>10</v>
       </c>
@@ -14018,7 +13867,7 @@
         <v>47.617464080799252</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>11</v>
       </c>
@@ -14035,7 +13884,7 @@
         <v>39.917052340536635</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -14052,7 +13901,7 @@
         <v>33.335379569397006</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>13</v>
       </c>
@@ -14069,7 +13918,7 @@
         <v>27.182645076790244</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="30">
         <v>14</v>
       </c>
@@ -14086,7 +13935,7 @@
         <v>22.234613200547688</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>15</v>
       </c>
@@ -14103,7 +13952,7 @@
         <v>17.649556942575554</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="30">
         <v>16</v>
       </c>
@@ -14120,7 +13969,7 @@
         <v>13.445173927988153</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <v>17</v>
       </c>
@@ -14137,7 +13986,7 @@
         <v>10.369661419333884</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <v>18</v>
       </c>
@@ -14154,7 +14003,7 @@
         <v>7.9509162050425948</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>19</v>
       </c>
@@ -14171,7 +14020,7 @@
         <v>5.8300319058096814</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <v>20</v>
       </c>
@@ -14188,7 +14037,7 @@
         <v>4.9971702049797271</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>103</v>
       </c>
@@ -14202,7 +14051,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -14212,7 +14061,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
@@ -14222,7 +14071,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -14231,7 +14080,7 @@
       <c r="I27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
@@ -14241,14 +14090,14 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
@@ -14270,30 +14119,30 @@
       <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -14306,7 +14155,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -14476,15 +14325,15 @@
       <selection activeCell="AP208" sqref="AP208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -14547,7 +14396,7 @@
       <c r="BI3" s="15"/>
       <c r="BJ3" s="15"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -14610,7 +14459,7 @@
       <c r="BI4" s="15"/>
       <c r="BJ4" s="15"/>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -14673,7 +14522,7 @@
       <c r="BI5" s="15"/>
       <c r="BJ5" s="15"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -14736,7 +14585,7 @@
       <c r="BI6" s="15"/>
       <c r="BJ6" s="15"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -14799,7 +14648,7 @@
       <c r="BI7" s="15"/>
       <c r="BJ7" s="15"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -14862,7 +14711,7 @@
       <c r="BI8" s="15"/>
       <c r="BJ8" s="15"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -14925,7 +14774,7 @@
       <c r="BI9" s="15"/>
       <c r="BJ9" s="15"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -14988,7 +14837,7 @@
       <c r="BI10" s="15"/>
       <c r="BJ10" s="15"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -15051,7 +14900,7 @@
       <c r="BI11" s="15"/>
       <c r="BJ11" s="15"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -15114,7 +14963,7 @@
       <c r="BI12" s="15"/>
       <c r="BJ12" s="15"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -15177,7 +15026,7 @@
       <c r="BI13" s="15"/>
       <c r="BJ13" s="15"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -15240,7 +15089,7 @@
       <c r="BI14" s="15"/>
       <c r="BJ14" s="15"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -15354,7 +15203,7 @@
       <c r="DG15" s="15"/>
       <c r="DH15" s="15"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -15468,7 +15317,7 @@
       <c r="DG16" s="15"/>
       <c r="DH16" s="15"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -15582,7 +15431,7 @@
       <c r="DG17" s="15"/>
       <c r="DH17" s="15"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -15696,7 +15545,7 @@
       <c r="DG18" s="15"/>
       <c r="DH18" s="15"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -15810,7 +15659,7 @@
       <c r="DG19" s="15"/>
       <c r="DH19" s="15"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -15924,7 +15773,7 @@
       <c r="DG20" s="15"/>
       <c r="DH20" s="15"/>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -16038,7 +15887,7 @@
       <c r="DG21" s="15"/>
       <c r="DH21" s="15"/>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -16152,7 +16001,7 @@
       <c r="DG22" s="15"/>
       <c r="DH22" s="15"/>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -16266,7 +16115,7 @@
       <c r="DG23" s="15"/>
       <c r="DH23" s="15"/>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -16380,7 +16229,7 @@
       <c r="DG24" s="15"/>
       <c r="DH24" s="15"/>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -16494,7 +16343,7 @@
       <c r="DG25" s="15"/>
       <c r="DH25" s="15"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -16608,7 +16457,7 @@
       <c r="DG26" s="15"/>
       <c r="DH26" s="15"/>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -16722,7 +16571,7 @@
       <c r="DG27" s="15"/>
       <c r="DH27" s="15"/>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -16836,7 +16685,7 @@
       <c r="DG28" s="15"/>
       <c r="DH28" s="15"/>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -16950,7 +16799,7 @@
       <c r="DG29" s="15"/>
       <c r="DH29" s="15"/>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -17064,7 +16913,7 @@
       <c r="DG30" s="15"/>
       <c r="DH30" s="15"/>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -17178,7 +17027,7 @@
       <c r="DG31" s="15"/>
       <c r="DH31" s="15"/>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -17292,7 +17141,7 @@
       <c r="DG32" s="15"/>
       <c r="DH32" s="15"/>
     </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -17406,7 +17255,7 @@
       <c r="DG33" s="15"/>
       <c r="DH33" s="15"/>
     </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -17520,7 +17369,7 @@
       <c r="DG34" s="15"/>
       <c r="DH34" s="15"/>
     </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -17634,7 +17483,7 @@
       <c r="DG35" s="15"/>
       <c r="DH35" s="15"/>
     </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -17748,7 +17597,7 @@
       <c r="DG36" s="15"/>
       <c r="DH36" s="15"/>
     </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -17862,7 +17711,7 @@
       <c r="DG37" s="15"/>
       <c r="DH37" s="15"/>
     </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -17976,7 +17825,7 @@
       <c r="DG38" s="15"/>
       <c r="DH38" s="15"/>
     </row>
-    <row r="39" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -18090,7 +17939,7 @@
       <c r="DG39" s="15"/>
       <c r="DH39" s="15"/>
     </row>
-    <row r="40" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -18204,7 +18053,7 @@
       <c r="DG40" s="15"/>
       <c r="DH40" s="15"/>
     </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -18318,7 +18167,7 @@
       <c r="DG41" s="15"/>
       <c r="DH41" s="15"/>
     </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -18432,7 +18281,7 @@
       <c r="DG42" s="15"/>
       <c r="DH42" s="15"/>
     </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -18546,7 +18395,7 @@
       <c r="DG43" s="15"/>
       <c r="DH43" s="15"/>
     </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -18660,7 +18509,7 @@
       <c r="DG44" s="15"/>
       <c r="DH44" s="15"/>
     </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -18774,7 +18623,7 @@
       <c r="DG45" s="15"/>
       <c r="DH45" s="15"/>
     </row>
-    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -18888,7 +18737,7 @@
       <c r="DG46" s="15"/>
       <c r="DH46" s="15"/>
     </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -19002,7 +18851,7 @@
       <c r="DG47" s="15"/>
       <c r="DH47" s="15"/>
     </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -19116,7 +18965,7 @@
       <c r="DG48" s="15"/>
       <c r="DH48" s="15"/>
     </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -19230,7 +19079,7 @@
       <c r="DG49" s="15"/>
       <c r="DH49" s="15"/>
     </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -19344,7 +19193,7 @@
       <c r="DG50" s="15"/>
       <c r="DH50" s="15"/>
     </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -19458,7 +19307,7 @@
       <c r="DG51" s="15"/>
       <c r="DH51" s="15"/>
     </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -19572,7 +19421,7 @@
       <c r="DG52" s="15"/>
       <c r="DH52" s="15"/>
     </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -19686,7 +19535,7 @@
       <c r="DG53" s="15"/>
       <c r="DH53" s="15"/>
     </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -19800,7 +19649,7 @@
       <c r="DG54" s="15"/>
       <c r="DH54" s="15"/>
     </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -19914,7 +19763,7 @@
       <c r="DG55" s="15"/>
       <c r="DH55" s="15"/>
     </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -20028,7 +19877,7 @@
       <c r="DG56" s="15"/>
       <c r="DH56" s="15"/>
     </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -20142,7 +19991,7 @@
       <c r="DG57" s="15"/>
       <c r="DH57" s="15"/>
     </row>
-    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -20256,7 +20105,7 @@
       <c r="DG58" s="15"/>
       <c r="DH58" s="15"/>
     </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -20370,35 +20219,35 @@
       <c r="DG59" s="15"/>
       <c r="DH59" s="15"/>
     </row>
-    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -20512,7 +20361,7 @@
       <c r="DG88" s="15"/>
       <c r="DH88" s="15"/>
     </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -20626,7 +20475,7 @@
       <c r="DG89" s="15"/>
       <c r="DH89" s="15"/>
     </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -20740,7 +20589,7 @@
       <c r="DG90" s="15"/>
       <c r="DH90" s="15"/>
     </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -20854,7 +20703,7 @@
       <c r="DG91" s="15"/>
       <c r="DH91" s="15"/>
     </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -20968,7 +20817,7 @@
       <c r="DG92" s="15"/>
       <c r="DH92" s="15"/>
     </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -21082,7 +20931,7 @@
       <c r="DG93" s="15"/>
       <c r="DH93" s="15"/>
     </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -21196,7 +21045,7 @@
       <c r="DG94" s="15"/>
       <c r="DH94" s="15"/>
     </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -21310,7 +21159,7 @@
       <c r="DG95" s="15"/>
       <c r="DH95" s="15"/>
     </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -21424,7 +21273,7 @@
       <c r="DG96" s="15"/>
       <c r="DH96" s="15"/>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -21538,7 +21387,7 @@
       <c r="DG97" s="15"/>
       <c r="DH97" s="15"/>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -21652,7 +21501,7 @@
       <c r="DG98" s="15"/>
       <c r="DH98" s="15"/>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -21766,7 +21615,7 @@
       <c r="DG99" s="15"/>
       <c r="DH99" s="15"/>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -21880,7 +21729,7 @@
       <c r="DG100" s="15"/>
       <c r="DH100" s="15"/>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -21994,7 +21843,7 @@
       <c r="DG101" s="15"/>
       <c r="DH101" s="15"/>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -22108,7 +21957,7 @@
       <c r="DG102" s="15"/>
       <c r="DH102" s="15"/>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -22222,7 +22071,7 @@
       <c r="DG103" s="15"/>
       <c r="DH103" s="15"/>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -22336,7 +22185,7 @@
       <c r="DG104" s="15"/>
       <c r="DH104" s="15"/>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -22450,7 +22299,7 @@
       <c r="DG105" s="15"/>
       <c r="DH105" s="15"/>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -22564,7 +22413,7 @@
       <c r="DG106" s="15"/>
       <c r="DH106" s="15"/>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -22678,7 +22527,7 @@
       <c r="DG107" s="15"/>
       <c r="DH107" s="15"/>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -22792,7 +22641,7 @@
       <c r="DG108" s="15"/>
       <c r="DH108" s="15"/>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -22906,7 +22755,7 @@
       <c r="DG109" s="15"/>
       <c r="DH109" s="15"/>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -23020,7 +22869,7 @@
       <c r="DG110" s="15"/>
       <c r="DH110" s="15"/>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -23134,7 +22983,7 @@
       <c r="DG111" s="15"/>
       <c r="DH111" s="15"/>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -23248,7 +23097,7 @@
       <c r="DG112" s="15"/>
       <c r="DH112" s="15"/>
     </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -23362,7 +23211,7 @@
       <c r="DG113" s="15"/>
       <c r="DH113" s="15"/>
     </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -23476,7 +23325,7 @@
       <c r="DG114" s="15"/>
       <c r="DH114" s="15"/>
     </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -23590,7 +23439,7 @@
       <c r="DG115" s="15"/>
       <c r="DH115" s="15"/>
     </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -23704,7 +23553,7 @@
       <c r="DG116" s="15"/>
       <c r="DH116" s="15"/>
     </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -23818,7 +23667,7 @@
       <c r="DG117" s="15"/>
       <c r="DH117" s="15"/>
     </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -23932,7 +23781,7 @@
       <c r="DG118" s="15"/>
       <c r="DH118" s="15"/>
     </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -24046,7 +23895,7 @@
       <c r="DG119" s="15"/>
       <c r="DH119" s="15"/>
     </row>
-    <row r="120" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -24160,7 +24009,7 @@
       <c r="DG120" s="15"/>
       <c r="DH120" s="15"/>
     </row>
-    <row r="121" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -24274,7 +24123,7 @@
       <c r="DG121" s="15"/>
       <c r="DH121" s="15"/>
     </row>
-    <row r="122" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -24388,7 +24237,7 @@
       <c r="DG122" s="15"/>
       <c r="DH122" s="15"/>
     </row>
-    <row r="123" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -24502,7 +24351,7 @@
       <c r="DG123" s="15"/>
       <c r="DH123" s="15"/>
     </row>
-    <row r="124" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -24616,7 +24465,7 @@
       <c r="DG124" s="15"/>
       <c r="DH124" s="15"/>
     </row>
-    <row r="125" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -24730,7 +24579,7 @@
       <c r="DG125" s="15"/>
       <c r="DH125" s="15"/>
     </row>
-    <row r="126" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -24844,9 +24693,9 @@
       <c r="DG126" s="15"/>
       <c r="DH126" s="15"/>
     </row>
-    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -24960,7 +24809,7 @@
       <c r="DG129" s="15"/>
       <c r="DH129" s="15"/>
     </row>
-    <row r="130" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -25074,7 +24923,7 @@
       <c r="DG130" s="15"/>
       <c r="DH130" s="15"/>
     </row>
-    <row r="131" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -25188,7 +25037,7 @@
       <c r="DG131" s="15"/>
       <c r="DH131" s="15"/>
     </row>
-    <row r="132" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -25302,7 +25151,7 @@
       <c r="DG132" s="15"/>
       <c r="DH132" s="15"/>
     </row>
-    <row r="133" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -25416,7 +25265,7 @@
       <c r="DG133" s="15"/>
       <c r="DH133" s="15"/>
     </row>
-    <row r="134" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -25530,7 +25379,7 @@
       <c r="DG134" s="15"/>
       <c r="DH134" s="15"/>
     </row>
-    <row r="135" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -25644,7 +25493,7 @@
       <c r="DG135" s="15"/>
       <c r="DH135" s="15"/>
     </row>
-    <row r="136" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -25758,7 +25607,7 @@
       <c r="DG136" s="15"/>
       <c r="DH136" s="15"/>
     </row>
-    <row r="137" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -25872,7 +25721,7 @@
       <c r="DG137" s="15"/>
       <c r="DH137" s="15"/>
     </row>
-    <row r="138" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -25986,7 +25835,7 @@
       <c r="DG138" s="15"/>
       <c r="DH138" s="15"/>
     </row>
-    <row r="139" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -26100,7 +25949,7 @@
       <c r="DG139" s="15"/>
       <c r="DH139" s="15"/>
     </row>
-    <row r="140" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -26214,7 +26063,7 @@
       <c r="DG140" s="15"/>
       <c r="DH140" s="15"/>
     </row>
-    <row r="141" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -26328,7 +26177,7 @@
       <c r="DG141" s="15"/>
       <c r="DH141" s="15"/>
     </row>
-    <row r="142" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -26442,7 +26291,7 @@
       <c r="DG142" s="15"/>
       <c r="DH142" s="15"/>
     </row>
-    <row r="143" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -26556,7 +26405,7 @@
       <c r="DG143" s="15"/>
       <c r="DH143" s="15"/>
     </row>
-    <row r="144" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -26670,7 +26519,7 @@
       <c r="DG144" s="15"/>
       <c r="DH144" s="15"/>
     </row>
-    <row r="145" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -26784,7 +26633,7 @@
       <c r="DG145" s="15"/>
       <c r="DH145" s="15"/>
     </row>
-    <row r="146" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -26898,7 +26747,7 @@
       <c r="DG146" s="15"/>
       <c r="DH146" s="15"/>
     </row>
-    <row r="147" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -27012,7 +26861,7 @@
       <c r="DG147" s="15"/>
       <c r="DH147" s="15"/>
     </row>
-    <row r="148" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -27126,7 +26975,7 @@
       <c r="DG148" s="15"/>
       <c r="DH148" s="15"/>
     </row>
-    <row r="149" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -27240,7 +27089,7 @@
       <c r="DG149" s="15"/>
       <c r="DH149" s="15"/>
     </row>
-    <row r="150" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -27354,7 +27203,7 @@
       <c r="DG150" s="15"/>
       <c r="DH150" s="15"/>
     </row>
-    <row r="151" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -27468,7 +27317,7 @@
       <c r="DG151" s="15"/>
       <c r="DH151" s="15"/>
     </row>
-    <row r="152" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -27582,7 +27431,7 @@
       <c r="DG152" s="15"/>
       <c r="DH152" s="15"/>
     </row>
-    <row r="153" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -27696,7 +27545,7 @@
       <c r="DG153" s="15"/>
       <c r="DH153" s="15"/>
     </row>
-    <row r="154" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -27810,7 +27659,7 @@
       <c r="DG154" s="15"/>
       <c r="DH154" s="15"/>
     </row>
-    <row r="155" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -27924,7 +27773,7 @@
       <c r="DG155" s="15"/>
       <c r="DH155" s="15"/>
     </row>
-    <row r="156" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -28038,7 +27887,7 @@
       <c r="DG156" s="15"/>
       <c r="DH156" s="15"/>
     </row>
-    <row r="157" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -28152,7 +28001,7 @@
       <c r="DG157" s="15"/>
       <c r="DH157" s="15"/>
     </row>
-    <row r="158" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -28266,7 +28115,7 @@
       <c r="DG158" s="15"/>
       <c r="DH158" s="15"/>
     </row>
-    <row r="159" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -28380,7 +28229,7 @@
       <c r="DG159" s="15"/>
       <c r="DH159" s="15"/>
     </row>
-    <row r="160" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -28494,7 +28343,7 @@
       <c r="DG160" s="15"/>
       <c r="DH160" s="15"/>
     </row>
-    <row r="161" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -28608,7 +28457,7 @@
       <c r="DG161" s="15"/>
       <c r="DH161" s="15"/>
     </row>
-    <row r="162" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -28722,7 +28571,7 @@
       <c r="DG162" s="15"/>
       <c r="DH162" s="15"/>
     </row>
-    <row r="163" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -28836,7 +28685,7 @@
       <c r="DG163" s="15"/>
       <c r="DH163" s="15"/>
     </row>
-    <row r="164" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -28950,7 +28799,7 @@
       <c r="DG164" s="15"/>
       <c r="DH164" s="15"/>
     </row>
-    <row r="165" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -29064,7 +28913,7 @@
       <c r="DG165" s="15"/>
       <c r="DH165" s="15"/>
     </row>
-    <row r="166" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -29178,7 +29027,7 @@
       <c r="DG166" s="15"/>
       <c r="DH166" s="15"/>
     </row>
-    <row r="167" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -29292,7 +29141,7 @@
       <c r="DG167" s="15"/>
       <c r="DH167" s="15"/>
     </row>
-    <row r="168" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -29406,7 +29255,7 @@
       <c r="DG168" s="15"/>
       <c r="DH168" s="15"/>
     </row>
-    <row r="169" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -29520,7 +29369,7 @@
       <c r="DG169" s="15"/>
       <c r="DH169" s="15"/>
     </row>
-    <row r="170" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -29634,7 +29483,7 @@
       <c r="DG170" s="15"/>
       <c r="DH170" s="15"/>
     </row>
-    <row r="171" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -29748,7 +29597,7 @@
       <c r="DG171" s="15"/>
       <c r="DH171" s="15"/>
     </row>
-    <row r="172" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -29862,7 +29711,7 @@
       <c r="DG172" s="15"/>
       <c r="DH172" s="15"/>
     </row>
-    <row r="173" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -29976,7 +29825,7 @@
       <c r="DG173" s="15"/>
       <c r="DH173" s="15"/>
     </row>
-    <row r="174" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -30090,7 +29939,7 @@
       <c r="DG174" s="15"/>
       <c r="DH174" s="15"/>
     </row>
-    <row r="175" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -30204,7 +30053,7 @@
       <c r="DG175" s="15"/>
       <c r="DH175" s="15"/>
     </row>
-    <row r="176" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -30318,7 +30167,7 @@
       <c r="DG176" s="15"/>
       <c r="DH176" s="15"/>
     </row>
-    <row r="177" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -30432,7 +30281,7 @@
       <c r="DG177" s="15"/>
       <c r="DH177" s="15"/>
     </row>
-    <row r="178" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -30546,7 +30395,7 @@
       <c r="DG178" s="15"/>
       <c r="DH178" s="15"/>
     </row>
-    <row r="179" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -30660,7 +30509,7 @@
       <c r="DG179" s="15"/>
       <c r="DH179" s="15"/>
     </row>
-    <row r="180" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -30774,7 +30623,7 @@
       <c r="DG180" s="15"/>
       <c r="DH180" s="15"/>
     </row>
-    <row r="181" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -30888,7 +30737,7 @@
       <c r="DG181" s="15"/>
       <c r="DH181" s="15"/>
     </row>
-    <row r="182" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -31002,7 +30851,7 @@
       <c r="DG182" s="15"/>
       <c r="DH182" s="15"/>
     </row>
-    <row r="183" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -31116,7 +30965,7 @@
       <c r="DG183" s="15"/>
       <c r="DH183" s="15"/>
     </row>
-    <row r="184" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -31230,7 +31079,7 @@
       <c r="DG184" s="15"/>
       <c r="DH184" s="15"/>
     </row>
-    <row r="185" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -31344,7 +31193,7 @@
       <c r="DG185" s="15"/>
       <c r="DH185" s="15"/>
     </row>
-    <row r="186" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -31458,7 +31307,7 @@
       <c r="DG186" s="15"/>
       <c r="DH186" s="15"/>
     </row>
-    <row r="187" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -31572,7 +31421,7 @@
       <c r="DG187" s="15"/>
       <c r="DH187" s="15"/>
     </row>
-    <row r="188" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -31686,7 +31535,7 @@
       <c r="DG188" s="15"/>
       <c r="DH188" s="15"/>
     </row>
-    <row r="189" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -31800,7 +31649,7 @@
       <c r="DG189" s="15"/>
       <c r="DH189" s="15"/>
     </row>
-    <row r="190" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -31914,7 +31763,7 @@
       <c r="DG190" s="15"/>
       <c r="DH190" s="15"/>
     </row>
-    <row r="191" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -32028,7 +31877,7 @@
       <c r="DG191" s="15"/>
       <c r="DH191" s="15"/>
     </row>
-    <row r="192" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -32142,7 +31991,7 @@
       <c r="DG192" s="15"/>
       <c r="DH192" s="15"/>
     </row>
-    <row r="193" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -32256,7 +32105,7 @@
       <c r="DG193" s="15"/>
       <c r="DH193" s="15"/>
     </row>
-    <row r="194" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -32370,7 +32219,7 @@
       <c r="DG194" s="15"/>
       <c r="DH194" s="15"/>
     </row>
-    <row r="195" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -32484,7 +32333,7 @@
       <c r="DG195" s="15"/>
       <c r="DH195" s="15"/>
     </row>
-    <row r="196" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -32598,7 +32447,7 @@
       <c r="DG196" s="15"/>
       <c r="DH196" s="15"/>
     </row>
-    <row r="197" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -32712,7 +32561,7 @@
       <c r="DG197" s="15"/>
       <c r="DH197" s="15"/>
     </row>
-    <row r="198" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -32826,7 +32675,7 @@
       <c r="DG198" s="15"/>
       <c r="DH198" s="15"/>
     </row>
-    <row r="199" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -32940,7 +32789,7 @@
       <c r="DG199" s="15"/>
       <c r="DH199" s="15"/>
     </row>
-    <row r="200" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -33054,7 +32903,7 @@
       <c r="DG200" s="15"/>
       <c r="DH200" s="15"/>
     </row>
-    <row r="201" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -33168,7 +33017,7 @@
       <c r="DG201" s="15"/>
       <c r="DH201" s="15"/>
     </row>
-    <row r="202" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -33282,7 +33131,7 @@
       <c r="DG202" s="15"/>
       <c r="DH202" s="15"/>
     </row>
-    <row r="203" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -33396,7 +33245,7 @@
       <c r="DG203" s="15"/>
       <c r="DH203" s="15"/>
     </row>
-    <row r="204" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -33510,7 +33359,7 @@
       <c r="DG204" s="15"/>
       <c r="DH204" s="15"/>
     </row>
-    <row r="205" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -33624,7 +33473,7 @@
       <c r="DG205" s="15"/>
       <c r="DH205" s="15"/>
     </row>
-    <row r="206" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -33738,7 +33587,7 @@
       <c r="DG206" s="15"/>
       <c r="DH206" s="15"/>
     </row>
-    <row r="207" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -33852,7 +33701,7 @@
       <c r="DG207" s="15"/>
       <c r="DH207" s="15"/>
     </row>
-    <row r="208" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -33966,7 +33815,7 @@
       <c r="DG208" s="15"/>
       <c r="DH208" s="15"/>
     </row>
-    <row r="209" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -34080,7 +33929,7 @@
       <c r="DG209" s="15"/>
       <c r="DH209" s="15"/>
     </row>
-    <row r="210" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -34194,8 +34043,8 @@
       <c r="DG210" s="15"/>
       <c r="DH210" s="15"/>
     </row>
-    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -34309,7 +34158,7 @@
       <c r="DG212" s="15"/>
       <c r="DH212" s="15"/>
     </row>
-    <row r="213" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -34423,7 +34272,7 @@
       <c r="DG213" s="15"/>
       <c r="DH213" s="15"/>
     </row>
-    <row r="214" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -34537,7 +34386,7 @@
       <c r="DG214" s="15"/>
       <c r="DH214" s="15"/>
     </row>
-    <row r="215" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -34651,7 +34500,7 @@
       <c r="DG215" s="15"/>
       <c r="DH215" s="15"/>
     </row>
-    <row r="216" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -34765,7 +34614,7 @@
       <c r="DG216" s="15"/>
       <c r="DH216" s="15"/>
     </row>
-    <row r="217" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -34879,7 +34728,7 @@
       <c r="DG217" s="15"/>
       <c r="DH217" s="15"/>
     </row>
-    <row r="218" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -34993,7 +34842,7 @@
       <c r="DG218" s="15"/>
       <c r="DH218" s="15"/>
     </row>
-    <row r="219" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -35107,7 +34956,7 @@
       <c r="DG219" s="15"/>
       <c r="DH219" s="15"/>
     </row>
-    <row r="220" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -35221,7 +35070,7 @@
       <c r="DG220" s="15"/>
       <c r="DH220" s="15"/>
     </row>
-    <row r="221" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -35335,7 +35184,7 @@
       <c r="DG221" s="15"/>
       <c r="DH221" s="15"/>
     </row>
-    <row r="222" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -35449,7 +35298,7 @@
       <c r="DG222" s="15"/>
       <c r="DH222" s="15"/>
     </row>
-    <row r="223" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -35563,7 +35412,7 @@
       <c r="DG223" s="15"/>
       <c r="DH223" s="15"/>
     </row>
-    <row r="224" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -35677,7 +35526,7 @@
       <c r="DG224" s="15"/>
       <c r="DH224" s="15"/>
     </row>
-    <row r="225" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -35791,7 +35640,7 @@
       <c r="DG225" s="15"/>
       <c r="DH225" s="15"/>
     </row>
-    <row r="226" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -35905,7 +35754,7 @@
       <c r="DG226" s="15"/>
       <c r="DH226" s="15"/>
     </row>
-    <row r="227" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -36019,7 +35868,7 @@
       <c r="DG227" s="15"/>
       <c r="DH227" s="15"/>
     </row>
-    <row r="228" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -36133,7 +35982,7 @@
       <c r="DG228" s="15"/>
       <c r="DH228" s="15"/>
     </row>
-    <row r="229" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -36247,7 +36096,7 @@
       <c r="DG229" s="15"/>
       <c r="DH229" s="15"/>
     </row>
-    <row r="230" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -36361,7 +36210,7 @@
       <c r="DG230" s="15"/>
       <c r="DH230" s="15"/>
     </row>
-    <row r="231" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -36475,7 +36324,7 @@
       <c r="DG231" s="15"/>
       <c r="DH231" s="15"/>
     </row>
-    <row r="232" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -36589,7 +36438,7 @@
       <c r="DG232" s="15"/>
       <c r="DH232" s="15"/>
     </row>
-    <row r="233" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -36703,7 +36552,7 @@
       <c r="DG233" s="15"/>
       <c r="DH233" s="15"/>
     </row>
-    <row r="234" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -36817,7 +36666,7 @@
       <c r="DG234" s="15"/>
       <c r="DH234" s="15"/>
     </row>
-    <row r="235" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -36931,7 +36780,7 @@
       <c r="DG235" s="15"/>
       <c r="DH235" s="15"/>
     </row>
-    <row r="236" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -37045,7 +36894,7 @@
       <c r="DG236" s="15"/>
       <c r="DH236" s="15"/>
     </row>
-    <row r="237" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -37159,7 +37008,7 @@
       <c r="DG237" s="15"/>
       <c r="DH237" s="15"/>
     </row>
-    <row r="238" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -37273,7 +37122,7 @@
       <c r="DG238" s="15"/>
       <c r="DH238" s="15"/>
     </row>
-    <row r="239" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -37387,7 +37236,7 @@
       <c r="DG239" s="15"/>
       <c r="DH239" s="15"/>
     </row>
-    <row r="240" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -37501,7 +37350,7 @@
       <c r="DG240" s="15"/>
       <c r="DH240" s="15"/>
     </row>
-    <row r="241" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -37615,7 +37464,7 @@
       <c r="DG241" s="15"/>
       <c r="DH241" s="15"/>
     </row>
-    <row r="242" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -37729,7 +37578,7 @@
       <c r="DG242" s="15"/>
       <c r="DH242" s="15"/>
     </row>
-    <row r="243" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -37843,7 +37692,7 @@
       <c r="DG243" s="15"/>
       <c r="DH243" s="15"/>
     </row>
-    <row r="244" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -37957,7 +37806,7 @@
       <c r="DG244" s="15"/>
       <c r="DH244" s="15"/>
     </row>
-    <row r="245" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -38071,7 +37920,7 @@
       <c r="DG245" s="15"/>
       <c r="DH245" s="15"/>
     </row>
-    <row r="246" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -38185,7 +38034,7 @@
       <c r="DG246" s="15"/>
       <c r="DH246" s="15"/>
     </row>
-    <row r="247" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -38299,7 +38148,7 @@
       <c r="DG247" s="15"/>
       <c r="DH247" s="15"/>
     </row>
-    <row r="248" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -38413,7 +38262,7 @@
       <c r="DG248" s="15"/>
       <c r="DH248" s="15"/>
     </row>
-    <row r="249" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -38527,7 +38376,7 @@
       <c r="DG249" s="15"/>
       <c r="DH249" s="15"/>
     </row>
-    <row r="250" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -38641,7 +38490,7 @@
       <c r="DG250" s="15"/>
       <c r="DH250" s="15"/>
     </row>
-    <row r="251" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -38755,7 +38604,7 @@
       <c r="DG251" s="15"/>
       <c r="DH251" s="15"/>
     </row>
-    <row r="252" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -38869,7 +38718,7 @@
       <c r="DG252" s="15"/>
       <c r="DH252" s="15"/>
     </row>
-    <row r="253" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -38983,7 +38832,7 @@
       <c r="DG253" s="15"/>
       <c r="DH253" s="15"/>
     </row>
-    <row r="254" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -39097,7 +38946,7 @@
       <c r="DG254" s="15"/>
       <c r="DH254" s="15"/>
     </row>
-    <row r="255" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -39211,7 +39060,7 @@
       <c r="DG255" s="15"/>
       <c r="DH255" s="15"/>
     </row>
-    <row r="256" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -39325,7 +39174,7 @@
       <c r="DG256" s="15"/>
       <c r="DH256" s="15"/>
     </row>
-    <row r="257" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -39439,7 +39288,7 @@
       <c r="DG257" s="15"/>
       <c r="DH257" s="15"/>
     </row>
-    <row r="258" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -39553,7 +39402,7 @@
       <c r="DG258" s="15"/>
       <c r="DH258" s="15"/>
     </row>
-    <row r="259" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -39667,7 +39516,7 @@
       <c r="DG259" s="15"/>
       <c r="DH259" s="15"/>
     </row>
-    <row r="260" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -39781,7 +39630,7 @@
       <c r="DG260" s="15"/>
       <c r="DH260" s="15"/>
     </row>
-    <row r="261" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -39895,7 +39744,7 @@
       <c r="DG261" s="15"/>
       <c r="DH261" s="15"/>
     </row>
-    <row r="262" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -40009,7 +39858,7 @@
       <c r="DG262" s="15"/>
       <c r="DH262" s="15"/>
     </row>
-    <row r="263" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -40123,7 +39972,7 @@
       <c r="DG263" s="15"/>
       <c r="DH263" s="15"/>
     </row>
-    <row r="264" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -40237,7 +40086,7 @@
       <c r="DG264" s="15"/>
       <c r="DH264" s="15"/>
     </row>
-    <row r="265" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -40351,7 +40200,7 @@
       <c r="DG265" s="15"/>
       <c r="DH265" s="15"/>
     </row>
-    <row r="266" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
@@ -40414,7 +40263,7 @@
       <c r="BI266" s="15"/>
       <c r="BJ266" s="15"/>
     </row>
-    <row r="267" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
@@ -40477,7 +40326,7 @@
       <c r="BI267" s="15"/>
       <c r="BJ267" s="15"/>
     </row>
-    <row r="268" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
@@ -40540,7 +40389,7 @@
       <c r="BI268" s="15"/>
       <c r="BJ268" s="15"/>
     </row>
-    <row r="269" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
@@ -40603,7 +40452,7 @@
       <c r="BI269" s="15"/>
       <c r="BJ269" s="15"/>
     </row>
-    <row r="270" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
@@ -40666,7 +40515,7 @@
       <c r="BI270" s="15"/>
       <c r="BJ270" s="15"/>
     </row>
-    <row r="271" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
@@ -40729,7 +40578,7 @@
       <c r="BI271" s="15"/>
       <c r="BJ271" s="15"/>
     </row>
-    <row r="272" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
@@ -40807,33 +40656,33 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -40892,33 +40741,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -40975,32 +40824,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>

--- a/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
+++ b/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
@@ -8,36 +8,104 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED3984-06D4-44E7-8792-CE6D2E76CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65851F7A-4E0C-4A5F-9FDE-476A99BD043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regions" sheetId="15" r:id="rId1"/>
-    <sheet name="INS" sheetId="2" r:id="rId2"/>
-    <sheet name="Scrappage profile" sheetId="16" r:id="rId3"/>
-    <sheet name="UPD" sheetId="11" r:id="rId4"/>
-    <sheet name="UCT1" sheetId="1" r:id="rId5"/>
-    <sheet name="UCT2" sheetId="12" r:id="rId6"/>
-    <sheet name="UCT3" sheetId="13" r:id="rId7"/>
-    <sheet name="UCT4" sheetId="14" r:id="rId8"/>
+    <sheet name="Cover" sheetId="17" r:id="rId1"/>
+    <sheet name="Regions" sheetId="15" r:id="rId2"/>
+    <sheet name="INS" sheetId="2" r:id="rId3"/>
+    <sheet name="Scrappage profile" sheetId="16" r:id="rId4"/>
+    <sheet name="UPD" sheetId="11" r:id="rId5"/>
+    <sheet name="UCT1" sheetId="1" r:id="rId6"/>
+    <sheet name="UCT2" sheetId="12" r:id="rId7"/>
+    <sheet name="UCT3" sheetId="13" r:id="rId8"/>
+    <sheet name="UCT4" sheetId="14" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -194,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -600,6 +668,54 @@
   <si>
     <t>T-MGT*,T-HGT*</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
@@ -607,9 +723,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +816,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +939,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,10 +1038,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -911,10 +1105,66 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C51A8C08-2BAD-4FD8-94F0-3C245BC0F8D1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,6 +1184,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29645FE0-F5A9-4321-B1BC-4BEF94E159B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA5907-48D4-46B3-90CA-A41CD34265FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42422D-2871-4F51-921D-0550C90BB009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3F9481-4226-422A-845E-F990A3E5C64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0772BE-F346-43C9-A749-C6B7CF76C511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91E620D-EB6D-4742-A853-AF82422ABA98}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -994,6 +1553,19 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,6 +1888,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214175D3-9DA3-43CD-A80C-CAA430C69641}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="32" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="10" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="54">
+        <v>1</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="42"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="42"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="42"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="42"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="42"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="42"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="42"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="42"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="42"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="42"/>
+      <c r="Z88" s="42"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="42"/>
+      <c r="W89" s="42"/>
+      <c r="X89" s="42"/>
+      <c r="Y89" s="42"/>
+      <c r="Z89" s="42"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="42"/>
+      <c r="X90" s="42"/>
+      <c r="Y90" s="42"/>
+      <c r="Z90" s="42"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="42"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="42"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="42"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="42"/>
+      <c r="X93" s="42"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="42"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="42"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="42"/>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="42"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="42"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="42"/>
+      <c r="X95" s="42"/>
+      <c r="Y95" s="42"/>
+      <c r="Z95" s="42"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="42"/>
+      <c r="X97" s="42"/>
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="42"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="42"/>
+      <c r="W98" s="42"/>
+      <c r="X98" s="42"/>
+      <c r="Y98" s="42"/>
+      <c r="Z98" s="42"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="42"/>
+      <c r="W99" s="42"/>
+      <c r="X99" s="42"/>
+      <c r="Y99" s="42"/>
+      <c r="Z99" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{7726F769-BF37-46B8-B1C7-54B15108C4CB}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{A010B46C-A8E7-4C43-89C7-EFE4B4099A78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C030FF-C503-4743-9DBD-437AEB1E949D}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:AD37"/>
@@ -2082,12 +5505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -13652,7 +17075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8C5379-8622-4855-B8BF-95147E08A02B}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:K30"/>
@@ -14110,7 +17533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ3"/>
@@ -14316,7 +17739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:DH272"/>
@@ -40647,7 +44070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O5"/>
@@ -40732,7 +44155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O5"/>
@@ -40817,7 +44240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O5"/>

--- a/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
+++ b/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65851F7A-4E0C-4A5F-9FDE-476A99BD043D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF7C163-E10B-466E-83B9-23033263C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="UCT3" sheetId="13" r:id="rId8"/>
     <sheet name="UCT4" sheetId="14" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -675,25 +672,13 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
-  </si>
-  <si>
-    <t>Sector name</t>
   </si>
   <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
-  </si>
-  <si>
-    <t>Full Name(s) (Affiliation, email)</t>
   </si>
   <si>
     <t>Current maintainer(s):</t>
@@ -715,6 +700,18 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Scenario file</t>
+  </si>
+  <si>
+    <t>Transport (TRA)</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Retirement profile of new vehicles</t>
   </si>
 </sst>
 </file>
@@ -1112,9 +1109,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1133,9 +1127,6 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1148,14 +1139,20 @@
     <xf numFmtId="164" fontId="19" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1505,7 +1502,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1517,7 +1514,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,19 +1550,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,25 +1876,25 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="32" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="32" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" style="32" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="32" customWidth="1"/>
     <col min="13" max="13" width="10" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="32"/>
+    <col min="14" max="14" width="11.44140625" style="32" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -1938,7 +1922,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1966,7 +1950,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1994,7 +1978,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2022,7 +2006,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2050,7 +2034,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2078,7 +2062,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -2106,7 +2090,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -2134,7 +2118,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -2162,7 +2146,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -2190,7 +2174,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -2218,7 +2202,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2246,7 +2230,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -2274,7 +2258,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2302,7 +2286,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -2330,21 +2314,21 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
@@ -2360,11 +2344,11 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -2388,19 +2372,19 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
@@ -2416,23 +2400,23 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="B19" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -2448,23 +2432,23 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -2480,23 +2464,23 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
@@ -2512,19 +2496,19 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
@@ -2540,15 +2524,15 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -2572,11 +2556,11 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -2600,11 +2584,11 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -2628,15 +2612,15 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -2660,11 +2644,11 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -2688,11 +2672,11 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -2716,15 +2700,15 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="52">
+        <v>1</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -2748,17 +2732,17 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -2780,17 +2764,17 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -2812,13 +2796,13 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -2842,7 +2826,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -2870,7 +2854,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -2898,7 +2882,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -2926,7 +2910,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -2954,7 +2938,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -2982,7 +2966,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -3010,7 +2994,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3038,7 +3022,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3066,7 +3050,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -3094,7 +3078,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -3122,7 +3106,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -3150,7 +3134,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -3178,7 +3162,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -3206,7 +3190,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -3234,7 +3218,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -3262,7 +3246,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -3290,7 +3274,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -3318,7 +3302,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -3346,7 +3330,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -3374,7 +3358,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -3402,7 +3386,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -3430,7 +3414,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -3458,7 +3442,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -3486,7 +3470,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -3514,7 +3498,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -3542,7 +3526,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -3570,7 +3554,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -3598,7 +3582,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -3626,7 +3610,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -3654,7 +3638,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -3682,7 +3666,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -3710,7 +3694,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -3738,7 +3722,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -3766,7 +3750,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -3794,7 +3778,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -3822,7 +3806,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -3850,7 +3834,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -3878,7 +3862,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -3906,7 +3890,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -3934,7 +3918,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -3962,7 +3946,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -3990,7 +3974,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4018,7 +4002,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4046,7 +4030,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4074,7 +4058,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -4102,7 +4086,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -4130,7 +4114,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -4158,7 +4142,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -4186,7 +4170,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -4214,7 +4198,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -4242,7 +4226,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -4270,7 +4254,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -4298,7 +4282,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -4326,7 +4310,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -4354,7 +4338,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -4382,7 +4366,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -4410,7 +4394,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -4438,7 +4422,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -4466,7 +4450,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -4494,7 +4478,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -4522,7 +4506,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -4550,7 +4534,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -4578,7 +4562,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -4606,7 +4590,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -4634,7 +4618,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -4662,7 +4646,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -4690,7 +4674,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -4747,40 +4731,40 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="15"/>
+    <col min="29" max="29" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4894,12 +4878,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
@@ -5014,7 +4998,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
@@ -5131,7 +5115,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -5248,7 +5232,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
@@ -5256,7 +5240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>66</v>
       </c>
@@ -5264,7 +5248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -5272,7 +5256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
@@ -5280,7 +5264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -5288,7 +5272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
@@ -5296,7 +5280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>71</v>
       </c>
@@ -5304,7 +5288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>72</v>
       </c>
@@ -5312,7 +5296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>73</v>
       </c>
@@ -5320,7 +5304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>74</v>
       </c>
@@ -5328,7 +5312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>75</v>
       </c>
@@ -5336,7 +5320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>76</v>
       </c>
@@ -5344,7 +5328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
@@ -5352,7 +5336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>78</v>
       </c>
@@ -5360,7 +5344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>79</v>
       </c>
@@ -5368,7 +5352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>80</v>
       </c>
@@ -5376,7 +5360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>81</v>
       </c>
@@ -5384,7 +5368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>82</v>
       </c>
@@ -5392,7 +5376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>83</v>
       </c>
@@ -5400,7 +5384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>84</v>
       </c>
@@ -5408,7 +5392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
@@ -5416,7 +5400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>86</v>
       </c>
@@ -5424,7 +5408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>87</v>
       </c>
@@ -5432,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>88</v>
       </c>
@@ -5440,7 +5424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>89</v>
       </c>
@@ -5448,7 +5432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>90</v>
       </c>
@@ -5456,7 +5440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>91</v>
       </c>
@@ -5464,7 +5448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>92</v>
       </c>
@@ -5490,7 +5474,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5514,21 +5498,21 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="15" customWidth="1"/>
-    <col min="8" max="31" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
+    <col min="8" max="31" width="7.109375" customWidth="1"/>
     <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
@@ -5565,7 +5549,7 @@
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -5574,7 +5558,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
     </row>
-    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -5702,7 +5686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -5822,7 +5806,7 @@
       </c>
       <c r="AG5" s="15"/>
     </row>
-    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
@@ -5941,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>94</v>
       </c>
@@ -6060,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
@@ -6179,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>94</v>
       </c>
@@ -6298,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>94</v>
       </c>
@@ -6417,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>94</v>
       </c>
@@ -6536,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>94</v>
       </c>
@@ -6655,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>94</v>
       </c>
@@ -6774,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
@@ -6893,7 +6877,7 @@
         <v>0.97817172107331274</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
         <v>94</v>
       </c>
@@ -7013,7 +6997,7 @@
       </c>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -7132,7 +7116,7 @@
         <v>0.83185402303734834</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -7251,7 +7235,7 @@
         <v>0.73189170208617194</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -7370,7 +7354,7 @@
         <v>0.62121577779185166</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -7489,7 +7473,7 @@
         <v>0.50753665598451725</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -7608,7 +7592,7 @@
         <v>0.38939050015936671</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -7727,7 +7711,7 @@
         <v>0.288467577478426</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -7846,7 +7830,7 @@
         <v>0.21370203747193298</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>94</v>
       </c>
@@ -7965,7 +7949,7 @@
         <v>0.1583143631560151</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
         <v>94</v>
       </c>
@@ -8084,7 +8068,7 @@
         <v>0.11728216482159834</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>95</v>
       </c>
@@ -8209,7 +8193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
         <v>95</v>
       </c>
@@ -8335,7 +8319,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>95</v>
       </c>
@@ -8461,7 +8445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -8494,7 +8478,7 @@
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
     </row>
-    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -8527,7 +8511,7 @@
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
     </row>
-    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -8560,7 +8544,7 @@
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
     </row>
-    <row r="31" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>105</v>
       </c>
@@ -8598,7 +8582,7 @@
       <c r="AG31" s="38"/>
       <c r="AH31" s="38"/>
     </row>
-    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -8631,7 +8615,7 @@
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
     </row>
-    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -8639,7 +8623,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
@@ -8767,7 +8751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="32" t="s">
         <v>94</v>
       </c>
@@ -8886,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="32" t="s">
         <v>94</v>
       </c>
@@ -9005,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="32" t="s">
         <v>94</v>
       </c>
@@ -9124,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="32" t="s">
         <v>94</v>
       </c>
@@ -9243,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="32" t="s">
         <v>94</v>
       </c>
@@ -9362,7 +9346,7 @@
         <v>0.94791311868018946</v>
       </c>
     </row>
-    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="32" t="s">
         <v>94</v>
       </c>
@@ -9481,7 +9465,7 @@
         <v>0.9060850775490854</v>
       </c>
     </row>
-    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="32" t="s">
         <v>94</v>
       </c>
@@ -9600,7 +9584,7 @@
         <v>0.91435706526982952</v>
       </c>
     </row>
-    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="32" t="s">
         <v>94</v>
       </c>
@@ -9719,7 +9703,7 @@
         <v>0.86882412861909741</v>
       </c>
     </row>
-    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="32" t="s">
         <v>94</v>
       </c>
@@ -9838,7 +9822,7 @@
         <v>0.82922695299454818</v>
       </c>
     </row>
-    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="32" t="s">
         <v>94</v>
       </c>
@@ -9957,7 +9941,7 @@
         <v>0.79879829337168895</v>
       </c>
     </row>
-    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
@@ -10076,7 +10060,7 @@
         <v>0.77410832278704111</v>
       </c>
     </row>
-    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="32" t="s">
         <v>94</v>
       </c>
@@ -10195,7 +10179,7 @@
         <v>0.75463213805523366</v>
       </c>
     </row>
-    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>94</v>
       </c>
@@ -10314,7 +10298,7 @@
         <v>0.73291243695362795</v>
       </c>
     </row>
-    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>94</v>
       </c>
@@ -10433,7 +10417,7 @@
         <v>0.66679740354677275</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="32" t="s">
         <v>94</v>
       </c>
@@ -10552,7 +10536,7 @@
         <v>0.64133899762258684</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="32" t="s">
         <v>94</v>
       </c>
@@ -10671,7 +10655,7 @@
         <v>0.5857178420628868</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="32" t="s">
         <v>94</v>
       </c>
@@ -10790,7 +10774,7 @@
         <v>0.57182695902647174</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="32" t="s">
         <v>94</v>
       </c>
@@ -10909,7 +10893,7 @@
         <v>0.43476309517427986</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32" t="s">
         <v>94</v>
       </c>
@@ -11028,7 +11012,7 @@
         <v>0.41274159714086933</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32" t="s">
         <v>94</v>
       </c>
@@ -11147,7 +11131,7 @@
         <v>0.40009682595636675</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="32" t="s">
         <v>95</v>
       </c>
@@ -11271,7 +11255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="32" t="s">
         <v>95</v>
       </c>
@@ -11396,7 +11380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>95</v>
       </c>
@@ -11522,7 +11506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -11555,7 +11539,7 @@
       <c r="AE58" s="35"/>
       <c r="AF58" s="35"/>
     </row>
-    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
@@ -11588,7 +11572,7 @@
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
     </row>
-    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
@@ -11621,7 +11605,7 @@
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
     </row>
-    <row r="61" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="39" t="s">
         <v>109</v>
       </c>
@@ -11659,7 +11643,7 @@
       <c r="AG61" s="38"/>
       <c r="AH61" s="38"/>
     </row>
-    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
@@ -11692,14 +11676,14 @@
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
     </row>
-    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="12" t="s">
         <v>11</v>
       </c>
@@ -11827,7 +11811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="32" t="s">
         <v>94</v>
       </c>
@@ -11946,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="32" t="s">
         <v>94</v>
       </c>
@@ -12065,7 +12049,7 @@
         <v>0.9800667360906824</v>
       </c>
     </row>
-    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="32" t="s">
         <v>94</v>
       </c>
@@ -12184,7 +12168,7 @@
         <v>0.9497470049426342</v>
       </c>
     </row>
-    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="32" t="s">
         <v>94</v>
       </c>
@@ -12303,7 +12287,7 @@
         <v>0.90306898283260173</v>
       </c>
     </row>
-    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="32" t="s">
         <v>94</v>
       </c>
@@ -12422,7 +12406,7 @@
         <v>0.86715175935853817</v>
       </c>
     </row>
-    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32" t="s">
         <v>94</v>
       </c>
@@ -12541,7 +12525,7 @@
         <v>0.83870839876337333</v>
       </c>
     </row>
-    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32" t="s">
         <v>94</v>
       </c>
@@ -12660,7 +12644,7 @@
         <v>0.79860750405892778</v>
       </c>
     </row>
-    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="32" t="s">
         <v>94</v>
       </c>
@@ -12779,7 +12763,7 @@
         <v>0.7511806224131885</v>
       </c>
     </row>
-    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B73" s="32" t="s">
         <v>94</v>
       </c>
@@ -12898,7 +12882,7 @@
         <v>0.69653100220097497</v>
       </c>
     </row>
-    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="32" t="s">
         <v>94</v>
       </c>
@@ -13017,7 +13001,7 @@
         <v>0.62902859094617636</v>
       </c>
     </row>
-    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="32" t="s">
         <v>94</v>
       </c>
@@ -13136,7 +13120,7 @@
         <v>0.55432706683831479</v>
       </c>
     </row>
-    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="32" t="s">
         <v>94</v>
       </c>
@@ -13255,7 +13239,7 @@
         <v>0.48050397200271588</v>
       </c>
     </row>
-    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="32" t="s">
         <v>94</v>
       </c>
@@ -13374,7 +13358,7 @@
         <v>0.40170806551059934</v>
       </c>
     </row>
-    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="32" t="s">
         <v>94</v>
       </c>
@@ -13493,7 +13477,7 @@
         <v>0.32931880209238984</v>
       </c>
     </row>
-    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="32" t="s">
         <v>94</v>
       </c>
@@ -13612,7 +13596,7 @@
         <v>0.26434993477403756</v>
       </c>
     </row>
-    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="32" t="s">
         <v>95</v>
       </c>
@@ -13736,7 +13720,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="32" t="s">
         <v>95</v>
       </c>
@@ -13861,7 +13845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
         <v>95</v>
       </c>
@@ -13987,7 +13971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -14020,7 +14004,7 @@
       <c r="AE83" s="35"/>
       <c r="AF83" s="35"/>
     </row>
-    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -14053,7 +14037,7 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
@@ -14086,7 +14070,7 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="39" t="s">
         <v>111</v>
       </c>
@@ -14124,7 +14108,7 @@
       <c r="AG86" s="38"/>
       <c r="AH86" s="38"/>
     </row>
-    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
@@ -14157,14 +14141,14 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -14292,7 +14276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="32" t="s">
         <v>94</v>
       </c>
@@ -14411,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="32" t="s">
         <v>94</v>
       </c>
@@ -14530,7 +14514,7 @@
         <v>0.98529141679235754</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="32" t="s">
         <v>94</v>
       </c>
@@ -14649,7 +14633,7 @@
         <v>0.93352234155599045</v>
       </c>
     </row>
-    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="32" t="s">
         <v>94</v>
       </c>
@@ -14768,7 +14752,7 @@
         <v>0.86853044848171546</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
         <v>94</v>
       </c>
@@ -14887,7 +14871,7 @@
         <v>0.80912695485417574</v>
       </c>
     </row>
-    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="32" t="s">
         <v>94</v>
       </c>
@@ -15006,7 +14990,7 @@
         <v>0.74663612868686757</v>
       </c>
     </row>
-    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="32" t="s">
         <v>94</v>
       </c>
@@ -15125,7 +15109,7 @@
         <v>0.68748310495340637</v>
       </c>
     </row>
-    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="32" t="s">
         <v>94</v>
       </c>
@@ -15244,7 +15228,7 @@
         <v>0.62348824545899562</v>
       </c>
     </row>
-    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="32" t="s">
         <v>94</v>
       </c>
@@ -15363,7 +15347,7 @@
         <v>0.55224298141356309</v>
       </c>
     </row>
-    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="32" t="s">
         <v>94</v>
       </c>
@@ -15482,7 +15466,7 @@
         <v>0.47617464080799254</v>
       </c>
     </row>
-    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="32" t="s">
         <v>94</v>
       </c>
@@ -15601,7 +15585,7 @@
         <v>0.39917052340536635</v>
       </c>
     </row>
-    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="32" t="s">
         <v>94</v>
       </c>
@@ -15720,7 +15704,7 @@
         <v>0.33335379569397006</v>
       </c>
     </row>
-    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="32" t="s">
         <v>94</v>
       </c>
@@ -15839,7 +15823,7 @@
         <v>0.27182645076790246</v>
       </c>
     </row>
-    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="32" t="s">
         <v>94</v>
       </c>
@@ -15958,7 +15942,7 @@
         <v>0.22234613200547687</v>
       </c>
     </row>
-    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B104" s="32" t="s">
         <v>94</v>
       </c>
@@ -16077,7 +16061,7 @@
         <v>0.17649556942575553</v>
       </c>
     </row>
-    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B105" s="32" t="s">
         <v>95</v>
       </c>
@@ -16201,7 +16185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="32" t="s">
         <v>95</v>
       </c>
@@ -16326,7 +16310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B107" s="17" t="s">
         <v>95</v>
       </c>
@@ -16452,7 +16436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
@@ -16485,7 +16469,7 @@
       <c r="AE108" s="35"/>
       <c r="AF108" s="35"/>
     </row>
-    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
@@ -16518,12 +16502,12 @@
       <c r="AE109" s="35"/>
       <c r="AF109" s="35"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
         <v>16</v>
       </c>
@@ -16531,7 +16515,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
@@ -16659,7 +16643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B113" s="15" t="s">
         <v>96</v>
       </c>
@@ -16759,7 +16743,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B114" s="32" t="s">
         <v>96</v>
       </c>
@@ -16858,7 +16842,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B115" s="32" t="s">
         <v>96</v>
       </c>
@@ -16957,7 +16941,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B116" s="17" t="s">
         <v>96</v>
       </c>
@@ -17057,16 +17041,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:34" x14ac:dyDescent="0.3">
       <c r="V119" s="15"/>
     </row>
-    <row r="120" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:34" x14ac:dyDescent="0.3">
       <c r="V120" s="15"/>
     </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:34" x14ac:dyDescent="0.3">
       <c r="V121" s="15"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F134" s="15"/>
     </row>
   </sheetData>
@@ -17080,16 +17064,16 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>102</v>
       </c>
@@ -17097,7 +17081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="33"/>
       <c r="C3" s="33" t="s">
         <v>97</v>
@@ -17112,7 +17096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="30">
         <v>1</v>
       </c>
@@ -17129,7 +17113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -17147,7 +17131,7 @@
         <v>98.52914167923575</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="30">
         <v>3</v>
       </c>
@@ -17165,7 +17149,7 @@
         <v>93.352234155599049</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -17183,7 +17167,7 @@
         <v>86.85304484817155</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -17201,7 +17185,7 @@
         <v>80.912695485417572</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="30">
         <v>6</v>
       </c>
@@ -17219,7 +17203,7 @@
         <v>74.663612868686755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="30">
         <v>7</v>
       </c>
@@ -17237,7 +17221,7 @@
         <v>68.748310495340633</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="30">
         <v>8</v>
       </c>
@@ -17255,7 +17239,7 @@
         <v>62.348824545899561</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>9</v>
       </c>
@@ -17273,7 +17257,7 @@
         <v>55.224298141356314</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
         <v>10</v>
       </c>
@@ -17290,7 +17274,7 @@
         <v>47.617464080799252</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
         <v>11</v>
       </c>
@@ -17307,7 +17291,7 @@
         <v>39.917052340536635</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -17324,7 +17308,7 @@
         <v>33.335379569397006</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
         <v>13</v>
       </c>
@@ -17341,7 +17325,7 @@
         <v>27.182645076790244</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="30">
         <v>14</v>
       </c>
@@ -17358,7 +17342,7 @@
         <v>22.234613200547688</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
         <v>15</v>
       </c>
@@ -17375,7 +17359,7 @@
         <v>17.649556942575554</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="30">
         <v>16</v>
       </c>
@@ -17392,7 +17376,7 @@
         <v>13.445173927988153</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="30">
         <v>17</v>
       </c>
@@ -17409,7 +17393,7 @@
         <v>10.369661419333884</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="30">
         <v>18</v>
       </c>
@@ -17426,7 +17410,7 @@
         <v>7.9509162050425948</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="30">
         <v>19</v>
       </c>
@@ -17443,7 +17427,7 @@
         <v>5.8300319058096814</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="30">
         <v>20</v>
       </c>
@@ -17460,7 +17444,7 @@
         <v>4.9971702049797271</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="37" t="s">
         <v>103</v>
       </c>
@@ -17474,7 +17458,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -17484,7 +17468,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
@@ -17494,7 +17478,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -17503,7 +17487,7 @@
       <c r="I27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
@@ -17513,14 +17497,14 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
@@ -17542,30 +17526,30 @@
       <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.7109375" customWidth="1"/>
-    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -17578,7 +17562,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -17748,15 +17732,15 @@
       <selection activeCell="AP208" sqref="AP208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -17819,7 +17803,7 @@
       <c r="BI3" s="15"/>
       <c r="BJ3" s="15"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -17882,7 +17866,7 @@
       <c r="BI4" s="15"/>
       <c r="BJ4" s="15"/>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -17945,7 +17929,7 @@
       <c r="BI5" s="15"/>
       <c r="BJ5" s="15"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -18008,7 +17992,7 @@
       <c r="BI6" s="15"/>
       <c r="BJ6" s="15"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -18071,7 +18055,7 @@
       <c r="BI7" s="15"/>
       <c r="BJ7" s="15"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -18134,7 +18118,7 @@
       <c r="BI8" s="15"/>
       <c r="BJ8" s="15"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -18197,7 +18181,7 @@
       <c r="BI9" s="15"/>
       <c r="BJ9" s="15"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -18260,7 +18244,7 @@
       <c r="BI10" s="15"/>
       <c r="BJ10" s="15"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -18323,7 +18307,7 @@
       <c r="BI11" s="15"/>
       <c r="BJ11" s="15"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -18386,7 +18370,7 @@
       <c r="BI12" s="15"/>
       <c r="BJ12" s="15"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -18449,7 +18433,7 @@
       <c r="BI13" s="15"/>
       <c r="BJ13" s="15"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -18512,7 +18496,7 @@
       <c r="BI14" s="15"/>
       <c r="BJ14" s="15"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -18626,7 +18610,7 @@
       <c r="DG15" s="15"/>
       <c r="DH15" s="15"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -18740,7 +18724,7 @@
       <c r="DG16" s="15"/>
       <c r="DH16" s="15"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -18854,7 +18838,7 @@
       <c r="DG17" s="15"/>
       <c r="DH17" s="15"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -18968,7 +18952,7 @@
       <c r="DG18" s="15"/>
       <c r="DH18" s="15"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -19082,7 +19066,7 @@
       <c r="DG19" s="15"/>
       <c r="DH19" s="15"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -19196,7 +19180,7 @@
       <c r="DG20" s="15"/>
       <c r="DH20" s="15"/>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -19310,7 +19294,7 @@
       <c r="DG21" s="15"/>
       <c r="DH21" s="15"/>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -19424,7 +19408,7 @@
       <c r="DG22" s="15"/>
       <c r="DH22" s="15"/>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -19538,7 +19522,7 @@
       <c r="DG23" s="15"/>
       <c r="DH23" s="15"/>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -19652,7 +19636,7 @@
       <c r="DG24" s="15"/>
       <c r="DH24" s="15"/>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -19766,7 +19750,7 @@
       <c r="DG25" s="15"/>
       <c r="DH25" s="15"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -19880,7 +19864,7 @@
       <c r="DG26" s="15"/>
       <c r="DH26" s="15"/>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -19994,7 +19978,7 @@
       <c r="DG27" s="15"/>
       <c r="DH27" s="15"/>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20108,7 +20092,7 @@
       <c r="DG28" s="15"/>
       <c r="DH28" s="15"/>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -20222,7 +20206,7 @@
       <c r="DG29" s="15"/>
       <c r="DH29" s="15"/>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -20336,7 +20320,7 @@
       <c r="DG30" s="15"/>
       <c r="DH30" s="15"/>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -20450,7 +20434,7 @@
       <c r="DG31" s="15"/>
       <c r="DH31" s="15"/>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -20564,7 +20548,7 @@
       <c r="DG32" s="15"/>
       <c r="DH32" s="15"/>
     </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -20678,7 +20662,7 @@
       <c r="DG33" s="15"/>
       <c r="DH33" s="15"/>
     </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -20792,7 +20776,7 @@
       <c r="DG34" s="15"/>
       <c r="DH34" s="15"/>
     </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20906,7 +20890,7 @@
       <c r="DG35" s="15"/>
       <c r="DH35" s="15"/>
     </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -21020,7 +21004,7 @@
       <c r="DG36" s="15"/>
       <c r="DH36" s="15"/>
     </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -21134,7 +21118,7 @@
       <c r="DG37" s="15"/>
       <c r="DH37" s="15"/>
     </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -21248,7 +21232,7 @@
       <c r="DG38" s="15"/>
       <c r="DH38" s="15"/>
     </row>
-    <row r="39" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -21362,7 +21346,7 @@
       <c r="DG39" s="15"/>
       <c r="DH39" s="15"/>
     </row>
-    <row r="40" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -21476,7 +21460,7 @@
       <c r="DG40" s="15"/>
       <c r="DH40" s="15"/>
     </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -21590,7 +21574,7 @@
       <c r="DG41" s="15"/>
       <c r="DH41" s="15"/>
     </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -21704,7 +21688,7 @@
       <c r="DG42" s="15"/>
       <c r="DH42" s="15"/>
     </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -21818,7 +21802,7 @@
       <c r="DG43" s="15"/>
       <c r="DH43" s="15"/>
     </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -21932,7 +21916,7 @@
       <c r="DG44" s="15"/>
       <c r="DH44" s="15"/>
     </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -22046,7 +22030,7 @@
       <c r="DG45" s="15"/>
       <c r="DH45" s="15"/>
     </row>
-    <row r="46" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -22160,7 +22144,7 @@
       <c r="DG46" s="15"/>
       <c r="DH46" s="15"/>
     </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -22274,7 +22258,7 @@
       <c r="DG47" s="15"/>
       <c r="DH47" s="15"/>
     </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -22388,7 +22372,7 @@
       <c r="DG48" s="15"/>
       <c r="DH48" s="15"/>
     </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -22502,7 +22486,7 @@
       <c r="DG49" s="15"/>
       <c r="DH49" s="15"/>
     </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -22616,7 +22600,7 @@
       <c r="DG50" s="15"/>
       <c r="DH50" s="15"/>
     </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -22730,7 +22714,7 @@
       <c r="DG51" s="15"/>
       <c r="DH51" s="15"/>
     </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -22844,7 +22828,7 @@
       <c r="DG52" s="15"/>
       <c r="DH52" s="15"/>
     </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -22958,7 +22942,7 @@
       <c r="DG53" s="15"/>
       <c r="DH53" s="15"/>
     </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -23072,7 +23056,7 @@
       <c r="DG54" s="15"/>
       <c r="DH54" s="15"/>
     </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -23186,7 +23170,7 @@
       <c r="DG55" s="15"/>
       <c r="DH55" s="15"/>
     </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -23300,7 +23284,7 @@
       <c r="DG56" s="15"/>
       <c r="DH56" s="15"/>
     </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -23414,7 +23398,7 @@
       <c r="DG57" s="15"/>
       <c r="DH57" s="15"/>
     </row>
-    <row r="58" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -23528,7 +23512,7 @@
       <c r="DG58" s="15"/>
       <c r="DH58" s="15"/>
     </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -23642,35 +23626,35 @@
       <c r="DG59" s="15"/>
       <c r="DH59" s="15"/>
     </row>
-    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -23784,7 +23768,7 @@
       <c r="DG88" s="15"/>
       <c r="DH88" s="15"/>
     </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -23898,7 +23882,7 @@
       <c r="DG89" s="15"/>
       <c r="DH89" s="15"/>
     </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -24012,7 +23996,7 @@
       <c r="DG90" s="15"/>
       <c r="DH90" s="15"/>
     </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -24126,7 +24110,7 @@
       <c r="DG91" s="15"/>
       <c r="DH91" s="15"/>
     </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -24240,7 +24224,7 @@
       <c r="DG92" s="15"/>
       <c r="DH92" s="15"/>
     </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -24354,7 +24338,7 @@
       <c r="DG93" s="15"/>
       <c r="DH93" s="15"/>
     </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -24468,7 +24452,7 @@
       <c r="DG94" s="15"/>
       <c r="DH94" s="15"/>
     </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -24582,7 +24566,7 @@
       <c r="DG95" s="15"/>
       <c r="DH95" s="15"/>
     </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -24696,7 +24680,7 @@
       <c r="DG96" s="15"/>
       <c r="DH96" s="15"/>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -24810,7 +24794,7 @@
       <c r="DG97" s="15"/>
       <c r="DH97" s="15"/>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -24924,7 +24908,7 @@
       <c r="DG98" s="15"/>
       <c r="DH98" s="15"/>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -25038,7 +25022,7 @@
       <c r="DG99" s="15"/>
       <c r="DH99" s="15"/>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -25152,7 +25136,7 @@
       <c r="DG100" s="15"/>
       <c r="DH100" s="15"/>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -25266,7 +25250,7 @@
       <c r="DG101" s="15"/>
       <c r="DH101" s="15"/>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -25380,7 +25364,7 @@
       <c r="DG102" s="15"/>
       <c r="DH102" s="15"/>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -25494,7 +25478,7 @@
       <c r="DG103" s="15"/>
       <c r="DH103" s="15"/>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -25608,7 +25592,7 @@
       <c r="DG104" s="15"/>
       <c r="DH104" s="15"/>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -25722,7 +25706,7 @@
       <c r="DG105" s="15"/>
       <c r="DH105" s="15"/>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -25836,7 +25820,7 @@
       <c r="DG106" s="15"/>
       <c r="DH106" s="15"/>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -25950,7 +25934,7 @@
       <c r="DG107" s="15"/>
       <c r="DH107" s="15"/>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -26064,7 +26048,7 @@
       <c r="DG108" s="15"/>
       <c r="DH108" s="15"/>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -26178,7 +26162,7 @@
       <c r="DG109" s="15"/>
       <c r="DH109" s="15"/>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -26292,7 +26276,7 @@
       <c r="DG110" s="15"/>
       <c r="DH110" s="15"/>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -26406,7 +26390,7 @@
       <c r="DG111" s="15"/>
       <c r="DH111" s="15"/>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -26520,7 +26504,7 @@
       <c r="DG112" s="15"/>
       <c r="DH112" s="15"/>
     </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -26634,7 +26618,7 @@
       <c r="DG113" s="15"/>
       <c r="DH113" s="15"/>
     </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -26748,7 +26732,7 @@
       <c r="DG114" s="15"/>
       <c r="DH114" s="15"/>
     </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -26862,7 +26846,7 @@
       <c r="DG115" s="15"/>
       <c r="DH115" s="15"/>
     </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -26976,7 +26960,7 @@
       <c r="DG116" s="15"/>
       <c r="DH116" s="15"/>
     </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -27090,7 +27074,7 @@
       <c r="DG117" s="15"/>
       <c r="DH117" s="15"/>
     </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -27204,7 +27188,7 @@
       <c r="DG118" s="15"/>
       <c r="DH118" s="15"/>
     </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -27318,7 +27302,7 @@
       <c r="DG119" s="15"/>
       <c r="DH119" s="15"/>
     </row>
-    <row r="120" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -27432,7 +27416,7 @@
       <c r="DG120" s="15"/>
       <c r="DH120" s="15"/>
     </row>
-    <row r="121" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -27546,7 +27530,7 @@
       <c r="DG121" s="15"/>
       <c r="DH121" s="15"/>
     </row>
-    <row r="122" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -27660,7 +27644,7 @@
       <c r="DG122" s="15"/>
       <c r="DH122" s="15"/>
     </row>
-    <row r="123" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -27774,7 +27758,7 @@
       <c r="DG123" s="15"/>
       <c r="DH123" s="15"/>
     </row>
-    <row r="124" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -27888,7 +27872,7 @@
       <c r="DG124" s="15"/>
       <c r="DH124" s="15"/>
     </row>
-    <row r="125" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -28002,7 +27986,7 @@
       <c r="DG125" s="15"/>
       <c r="DH125" s="15"/>
     </row>
-    <row r="126" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -28116,9 +28100,9 @@
       <c r="DG126" s="15"/>
       <c r="DH126" s="15"/>
     </row>
-    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -28232,7 +28216,7 @@
       <c r="DG129" s="15"/>
       <c r="DH129" s="15"/>
     </row>
-    <row r="130" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -28346,7 +28330,7 @@
       <c r="DG130" s="15"/>
       <c r="DH130" s="15"/>
     </row>
-    <row r="131" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -28460,7 +28444,7 @@
       <c r="DG131" s="15"/>
       <c r="DH131" s="15"/>
     </row>
-    <row r="132" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -28574,7 +28558,7 @@
       <c r="DG132" s="15"/>
       <c r="DH132" s="15"/>
     </row>
-    <row r="133" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -28688,7 +28672,7 @@
       <c r="DG133" s="15"/>
       <c r="DH133" s="15"/>
     </row>
-    <row r="134" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -28802,7 +28786,7 @@
       <c r="DG134" s="15"/>
       <c r="DH134" s="15"/>
     </row>
-    <row r="135" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -28916,7 +28900,7 @@
       <c r="DG135" s="15"/>
       <c r="DH135" s="15"/>
     </row>
-    <row r="136" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -29030,7 +29014,7 @@
       <c r="DG136" s="15"/>
       <c r="DH136" s="15"/>
     </row>
-    <row r="137" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -29144,7 +29128,7 @@
       <c r="DG137" s="15"/>
       <c r="DH137" s="15"/>
     </row>
-    <row r="138" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -29258,7 +29242,7 @@
       <c r="DG138" s="15"/>
       <c r="DH138" s="15"/>
     </row>
-    <row r="139" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -29372,7 +29356,7 @@
       <c r="DG139" s="15"/>
       <c r="DH139" s="15"/>
     </row>
-    <row r="140" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -29486,7 +29470,7 @@
       <c r="DG140" s="15"/>
       <c r="DH140" s="15"/>
     </row>
-    <row r="141" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -29600,7 +29584,7 @@
       <c r="DG141" s="15"/>
       <c r="DH141" s="15"/>
     </row>
-    <row r="142" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -29714,7 +29698,7 @@
       <c r="DG142" s="15"/>
       <c r="DH142" s="15"/>
     </row>
-    <row r="143" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -29828,7 +29812,7 @@
       <c r="DG143" s="15"/>
       <c r="DH143" s="15"/>
     </row>
-    <row r="144" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -29942,7 +29926,7 @@
       <c r="DG144" s="15"/>
       <c r="DH144" s="15"/>
     </row>
-    <row r="145" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -30056,7 +30040,7 @@
       <c r="DG145" s="15"/>
       <c r="DH145" s="15"/>
     </row>
-    <row r="146" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -30170,7 +30154,7 @@
       <c r="DG146" s="15"/>
       <c r="DH146" s="15"/>
     </row>
-    <row r="147" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -30284,7 +30268,7 @@
       <c r="DG147" s="15"/>
       <c r="DH147" s="15"/>
     </row>
-    <row r="148" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -30398,7 +30382,7 @@
       <c r="DG148" s="15"/>
       <c r="DH148" s="15"/>
     </row>
-    <row r="149" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -30512,7 +30496,7 @@
       <c r="DG149" s="15"/>
       <c r="DH149" s="15"/>
     </row>
-    <row r="150" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -30626,7 +30610,7 @@
       <c r="DG150" s="15"/>
       <c r="DH150" s="15"/>
     </row>
-    <row r="151" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -30740,7 +30724,7 @@
       <c r="DG151" s="15"/>
       <c r="DH151" s="15"/>
     </row>
-    <row r="152" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -30854,7 +30838,7 @@
       <c r="DG152" s="15"/>
       <c r="DH152" s="15"/>
     </row>
-    <row r="153" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -30968,7 +30952,7 @@
       <c r="DG153" s="15"/>
       <c r="DH153" s="15"/>
     </row>
-    <row r="154" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -31082,7 +31066,7 @@
       <c r="DG154" s="15"/>
       <c r="DH154" s="15"/>
     </row>
-    <row r="155" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -31196,7 +31180,7 @@
       <c r="DG155" s="15"/>
       <c r="DH155" s="15"/>
     </row>
-    <row r="156" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -31310,7 +31294,7 @@
       <c r="DG156" s="15"/>
       <c r="DH156" s="15"/>
     </row>
-    <row r="157" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -31424,7 +31408,7 @@
       <c r="DG157" s="15"/>
       <c r="DH157" s="15"/>
     </row>
-    <row r="158" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -31538,7 +31522,7 @@
       <c r="DG158" s="15"/>
       <c r="DH158" s="15"/>
     </row>
-    <row r="159" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -31652,7 +31636,7 @@
       <c r="DG159" s="15"/>
       <c r="DH159" s="15"/>
     </row>
-    <row r="160" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -31766,7 +31750,7 @@
       <c r="DG160" s="15"/>
       <c r="DH160" s="15"/>
     </row>
-    <row r="161" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -31880,7 +31864,7 @@
       <c r="DG161" s="15"/>
       <c r="DH161" s="15"/>
     </row>
-    <row r="162" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -31994,7 +31978,7 @@
       <c r="DG162" s="15"/>
       <c r="DH162" s="15"/>
     </row>
-    <row r="163" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -32108,7 +32092,7 @@
       <c r="DG163" s="15"/>
       <c r="DH163" s="15"/>
     </row>
-    <row r="164" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -32222,7 +32206,7 @@
       <c r="DG164" s="15"/>
       <c r="DH164" s="15"/>
     </row>
-    <row r="165" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -32336,7 +32320,7 @@
       <c r="DG165" s="15"/>
       <c r="DH165" s="15"/>
     </row>
-    <row r="166" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -32450,7 +32434,7 @@
       <c r="DG166" s="15"/>
       <c r="DH166" s="15"/>
     </row>
-    <row r="167" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -32564,7 +32548,7 @@
       <c r="DG167" s="15"/>
       <c r="DH167" s="15"/>
     </row>
-    <row r="168" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -32678,7 +32662,7 @@
       <c r="DG168" s="15"/>
       <c r="DH168" s="15"/>
     </row>
-    <row r="169" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -32792,7 +32776,7 @@
       <c r="DG169" s="15"/>
       <c r="DH169" s="15"/>
     </row>
-    <row r="170" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -32906,7 +32890,7 @@
       <c r="DG170" s="15"/>
       <c r="DH170" s="15"/>
     </row>
-    <row r="171" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -33020,7 +33004,7 @@
       <c r="DG171" s="15"/>
       <c r="DH171" s="15"/>
     </row>
-    <row r="172" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -33134,7 +33118,7 @@
       <c r="DG172" s="15"/>
       <c r="DH172" s="15"/>
     </row>
-    <row r="173" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -33248,7 +33232,7 @@
       <c r="DG173" s="15"/>
       <c r="DH173" s="15"/>
     </row>
-    <row r="174" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -33362,7 +33346,7 @@
       <c r="DG174" s="15"/>
       <c r="DH174" s="15"/>
     </row>
-    <row r="175" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -33476,7 +33460,7 @@
       <c r="DG175" s="15"/>
       <c r="DH175" s="15"/>
     </row>
-    <row r="176" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -33590,7 +33574,7 @@
       <c r="DG176" s="15"/>
       <c r="DH176" s="15"/>
     </row>
-    <row r="177" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -33704,7 +33688,7 @@
       <c r="DG177" s="15"/>
       <c r="DH177" s="15"/>
     </row>
-    <row r="178" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -33818,7 +33802,7 @@
       <c r="DG178" s="15"/>
       <c r="DH178" s="15"/>
     </row>
-    <row r="179" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -33932,7 +33916,7 @@
       <c r="DG179" s="15"/>
       <c r="DH179" s="15"/>
     </row>
-    <row r="180" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -34046,7 +34030,7 @@
       <c r="DG180" s="15"/>
       <c r="DH180" s="15"/>
     </row>
-    <row r="181" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -34160,7 +34144,7 @@
       <c r="DG181" s="15"/>
       <c r="DH181" s="15"/>
     </row>
-    <row r="182" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -34274,7 +34258,7 @@
       <c r="DG182" s="15"/>
       <c r="DH182" s="15"/>
     </row>
-    <row r="183" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -34388,7 +34372,7 @@
       <c r="DG183" s="15"/>
       <c r="DH183" s="15"/>
     </row>
-    <row r="184" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -34502,7 +34486,7 @@
       <c r="DG184" s="15"/>
       <c r="DH184" s="15"/>
     </row>
-    <row r="185" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -34616,7 +34600,7 @@
       <c r="DG185" s="15"/>
       <c r="DH185" s="15"/>
     </row>
-    <row r="186" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -34730,7 +34714,7 @@
       <c r="DG186" s="15"/>
       <c r="DH186" s="15"/>
     </row>
-    <row r="187" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -34844,7 +34828,7 @@
       <c r="DG187" s="15"/>
       <c r="DH187" s="15"/>
     </row>
-    <row r="188" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -34958,7 +34942,7 @@
       <c r="DG188" s="15"/>
       <c r="DH188" s="15"/>
     </row>
-    <row r="189" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -35072,7 +35056,7 @@
       <c r="DG189" s="15"/>
       <c r="DH189" s="15"/>
     </row>
-    <row r="190" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -35186,7 +35170,7 @@
       <c r="DG190" s="15"/>
       <c r="DH190" s="15"/>
     </row>
-    <row r="191" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -35300,7 +35284,7 @@
       <c r="DG191" s="15"/>
       <c r="DH191" s="15"/>
     </row>
-    <row r="192" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -35414,7 +35398,7 @@
       <c r="DG192" s="15"/>
       <c r="DH192" s="15"/>
     </row>
-    <row r="193" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -35528,7 +35512,7 @@
       <c r="DG193" s="15"/>
       <c r="DH193" s="15"/>
     </row>
-    <row r="194" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -35642,7 +35626,7 @@
       <c r="DG194" s="15"/>
       <c r="DH194" s="15"/>
     </row>
-    <row r="195" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -35756,7 +35740,7 @@
       <c r="DG195" s="15"/>
       <c r="DH195" s="15"/>
     </row>
-    <row r="196" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -35870,7 +35854,7 @@
       <c r="DG196" s="15"/>
       <c r="DH196" s="15"/>
     </row>
-    <row r="197" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -35984,7 +35968,7 @@
       <c r="DG197" s="15"/>
       <c r="DH197" s="15"/>
     </row>
-    <row r="198" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -36098,7 +36082,7 @@
       <c r="DG198" s="15"/>
       <c r="DH198" s="15"/>
     </row>
-    <row r="199" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -36212,7 +36196,7 @@
       <c r="DG199" s="15"/>
       <c r="DH199" s="15"/>
     </row>
-    <row r="200" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -36326,7 +36310,7 @@
       <c r="DG200" s="15"/>
       <c r="DH200" s="15"/>
     </row>
-    <row r="201" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -36440,7 +36424,7 @@
       <c r="DG201" s="15"/>
       <c r="DH201" s="15"/>
     </row>
-    <row r="202" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -36554,7 +36538,7 @@
       <c r="DG202" s="15"/>
       <c r="DH202" s="15"/>
     </row>
-    <row r="203" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -36668,7 +36652,7 @@
       <c r="DG203" s="15"/>
       <c r="DH203" s="15"/>
     </row>
-    <row r="204" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -36782,7 +36766,7 @@
       <c r="DG204" s="15"/>
       <c r="DH204" s="15"/>
     </row>
-    <row r="205" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -36896,7 +36880,7 @@
       <c r="DG205" s="15"/>
       <c r="DH205" s="15"/>
     </row>
-    <row r="206" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -37010,7 +36994,7 @@
       <c r="DG206" s="15"/>
       <c r="DH206" s="15"/>
     </row>
-    <row r="207" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -37124,7 +37108,7 @@
       <c r="DG207" s="15"/>
       <c r="DH207" s="15"/>
     </row>
-    <row r="208" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -37238,7 +37222,7 @@
       <c r="DG208" s="15"/>
       <c r="DH208" s="15"/>
     </row>
-    <row r="209" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -37352,7 +37336,7 @@
       <c r="DG209" s="15"/>
       <c r="DH209" s="15"/>
     </row>
-    <row r="210" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -37466,8 +37450,8 @@
       <c r="DG210" s="15"/>
       <c r="DH210" s="15"/>
     </row>
-    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -37581,7 +37565,7 @@
       <c r="DG212" s="15"/>
       <c r="DH212" s="15"/>
     </row>
-    <row r="213" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -37695,7 +37679,7 @@
       <c r="DG213" s="15"/>
       <c r="DH213" s="15"/>
     </row>
-    <row r="214" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -37809,7 +37793,7 @@
       <c r="DG214" s="15"/>
       <c r="DH214" s="15"/>
     </row>
-    <row r="215" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -37923,7 +37907,7 @@
       <c r="DG215" s="15"/>
       <c r="DH215" s="15"/>
     </row>
-    <row r="216" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -38037,7 +38021,7 @@
       <c r="DG216" s="15"/>
       <c r="DH216" s="15"/>
     </row>
-    <row r="217" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -38151,7 +38135,7 @@
       <c r="DG217" s="15"/>
       <c r="DH217" s="15"/>
     </row>
-    <row r="218" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -38265,7 +38249,7 @@
       <c r="DG218" s="15"/>
       <c r="DH218" s="15"/>
     </row>
-    <row r="219" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -38379,7 +38363,7 @@
       <c r="DG219" s="15"/>
       <c r="DH219" s="15"/>
     </row>
-    <row r="220" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -38493,7 +38477,7 @@
       <c r="DG220" s="15"/>
       <c r="DH220" s="15"/>
     </row>
-    <row r="221" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -38607,7 +38591,7 @@
       <c r="DG221" s="15"/>
       <c r="DH221" s="15"/>
     </row>
-    <row r="222" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -38721,7 +38705,7 @@
       <c r="DG222" s="15"/>
       <c r="DH222" s="15"/>
     </row>
-    <row r="223" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -38835,7 +38819,7 @@
       <c r="DG223" s="15"/>
       <c r="DH223" s="15"/>
     </row>
-    <row r="224" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -38949,7 +38933,7 @@
       <c r="DG224" s="15"/>
       <c r="DH224" s="15"/>
     </row>
-    <row r="225" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -39063,7 +39047,7 @@
       <c r="DG225" s="15"/>
       <c r="DH225" s="15"/>
     </row>
-    <row r="226" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -39177,7 +39161,7 @@
       <c r="DG226" s="15"/>
       <c r="DH226" s="15"/>
     </row>
-    <row r="227" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -39291,7 +39275,7 @@
       <c r="DG227" s="15"/>
       <c r="DH227" s="15"/>
     </row>
-    <row r="228" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -39405,7 +39389,7 @@
       <c r="DG228" s="15"/>
       <c r="DH228" s="15"/>
     </row>
-    <row r="229" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -39519,7 +39503,7 @@
       <c r="DG229" s="15"/>
       <c r="DH229" s="15"/>
     </row>
-    <row r="230" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -39633,7 +39617,7 @@
       <c r="DG230" s="15"/>
       <c r="DH230" s="15"/>
     </row>
-    <row r="231" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -39747,7 +39731,7 @@
       <c r="DG231" s="15"/>
       <c r="DH231" s="15"/>
     </row>
-    <row r="232" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -39861,7 +39845,7 @@
       <c r="DG232" s="15"/>
       <c r="DH232" s="15"/>
     </row>
-    <row r="233" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -39975,7 +39959,7 @@
       <c r="DG233" s="15"/>
       <c r="DH233" s="15"/>
     </row>
-    <row r="234" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -40089,7 +40073,7 @@
       <c r="DG234" s="15"/>
       <c r="DH234" s="15"/>
     </row>
-    <row r="235" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -40203,7 +40187,7 @@
       <c r="DG235" s="15"/>
       <c r="DH235" s="15"/>
     </row>
-    <row r="236" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -40317,7 +40301,7 @@
       <c r="DG236" s="15"/>
       <c r="DH236" s="15"/>
     </row>
-    <row r="237" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -40431,7 +40415,7 @@
       <c r="DG237" s="15"/>
       <c r="DH237" s="15"/>
     </row>
-    <row r="238" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -40545,7 +40529,7 @@
       <c r="DG238" s="15"/>
       <c r="DH238" s="15"/>
     </row>
-    <row r="239" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -40659,7 +40643,7 @@
       <c r="DG239" s="15"/>
       <c r="DH239" s="15"/>
     </row>
-    <row r="240" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -40773,7 +40757,7 @@
       <c r="DG240" s="15"/>
       <c r="DH240" s="15"/>
     </row>
-    <row r="241" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -40887,7 +40871,7 @@
       <c r="DG241" s="15"/>
       <c r="DH241" s="15"/>
     </row>
-    <row r="242" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -41001,7 +40985,7 @@
       <c r="DG242" s="15"/>
       <c r="DH242" s="15"/>
     </row>
-    <row r="243" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -41115,7 +41099,7 @@
       <c r="DG243" s="15"/>
       <c r="DH243" s="15"/>
     </row>
-    <row r="244" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -41229,7 +41213,7 @@
       <c r="DG244" s="15"/>
       <c r="DH244" s="15"/>
     </row>
-    <row r="245" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -41343,7 +41327,7 @@
       <c r="DG245" s="15"/>
       <c r="DH245" s="15"/>
     </row>
-    <row r="246" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -41457,7 +41441,7 @@
       <c r="DG246" s="15"/>
       <c r="DH246" s="15"/>
     </row>
-    <row r="247" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -41571,7 +41555,7 @@
       <c r="DG247" s="15"/>
       <c r="DH247" s="15"/>
     </row>
-    <row r="248" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -41685,7 +41669,7 @@
       <c r="DG248" s="15"/>
       <c r="DH248" s="15"/>
     </row>
-    <row r="249" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -41799,7 +41783,7 @@
       <c r="DG249" s="15"/>
       <c r="DH249" s="15"/>
     </row>
-    <row r="250" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -41913,7 +41897,7 @@
       <c r="DG250" s="15"/>
       <c r="DH250" s="15"/>
     </row>
-    <row r="251" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -42027,7 +42011,7 @@
       <c r="DG251" s="15"/>
       <c r="DH251" s="15"/>
     </row>
-    <row r="252" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -42141,7 +42125,7 @@
       <c r="DG252" s="15"/>
       <c r="DH252" s="15"/>
     </row>
-    <row r="253" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -42255,7 +42239,7 @@
       <c r="DG253" s="15"/>
       <c r="DH253" s="15"/>
     </row>
-    <row r="254" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -42369,7 +42353,7 @@
       <c r="DG254" s="15"/>
       <c r="DH254" s="15"/>
     </row>
-    <row r="255" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -42483,7 +42467,7 @@
       <c r="DG255" s="15"/>
       <c r="DH255" s="15"/>
     </row>
-    <row r="256" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -42597,7 +42581,7 @@
       <c r="DG256" s="15"/>
       <c r="DH256" s="15"/>
     </row>
-    <row r="257" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -42711,7 +42695,7 @@
       <c r="DG257" s="15"/>
       <c r="DH257" s="15"/>
     </row>
-    <row r="258" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -42825,7 +42809,7 @@
       <c r="DG258" s="15"/>
       <c r="DH258" s="15"/>
     </row>
-    <row r="259" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -42939,7 +42923,7 @@
       <c r="DG259" s="15"/>
       <c r="DH259" s="15"/>
     </row>
-    <row r="260" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -43053,7 +43037,7 @@
       <c r="DG260" s="15"/>
       <c r="DH260" s="15"/>
     </row>
-    <row r="261" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -43167,7 +43151,7 @@
       <c r="DG261" s="15"/>
       <c r="DH261" s="15"/>
     </row>
-    <row r="262" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -43281,7 +43265,7 @@
       <c r="DG262" s="15"/>
       <c r="DH262" s="15"/>
     </row>
-    <row r="263" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -43395,7 +43379,7 @@
       <c r="DG263" s="15"/>
       <c r="DH263" s="15"/>
     </row>
-    <row r="264" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -43509,7 +43493,7 @@
       <c r="DG264" s="15"/>
       <c r="DH264" s="15"/>
     </row>
-    <row r="265" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -43623,7 +43607,7 @@
       <c r="DG265" s="15"/>
       <c r="DH265" s="15"/>
     </row>
-    <row r="266" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
@@ -43686,7 +43670,7 @@
       <c r="BI266" s="15"/>
       <c r="BJ266" s="15"/>
     </row>
-    <row r="267" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
@@ -43749,7 +43733,7 @@
       <c r="BI267" s="15"/>
       <c r="BJ267" s="15"/>
     </row>
-    <row r="268" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
@@ -43812,7 +43796,7 @@
       <c r="BI268" s="15"/>
       <c r="BJ268" s="15"/>
     </row>
-    <row r="269" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
@@ -43875,7 +43859,7 @@
       <c r="BI269" s="15"/>
       <c r="BJ269" s="15"/>
     </row>
-    <row r="270" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
@@ -43938,7 +43922,7 @@
       <c r="BI270" s="15"/>
       <c r="BJ270" s="15"/>
     </row>
-    <row r="271" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
@@ -44001,7 +43985,7 @@
       <c r="BI271" s="15"/>
       <c r="BJ271" s="15"/>
     </row>
-    <row r="272" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:112" x14ac:dyDescent="0.3">
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
@@ -44079,33 +44063,33 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -44164,33 +44148,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -44247,32 +44231,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>

--- a/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
+++ b/SuppXLS/Scen_B_TRA_NewCars_Retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF7C163-E10B-466E-83B9-23033263C000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CB634B-9610-4720-854D-E0D446878B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
   </si>
   <si>
-    <t>Scenario file</t>
-  </si>
-  <si>
     <t>Transport (TRA)</t>
   </si>
   <si>
@@ -712,6 +709,9 @@
   </si>
   <si>
     <t>Retirement profile of new vehicles</t>
+  </si>
+  <si>
+    <t>Scenario</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1200,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29645FE0-F5A9-4321-B1BC-4BEF94E159B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1244,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAA5907-48D4-46B3-90CA-A41CD34265FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1293,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42422D-2871-4F51-921D-0550C90BB009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3F9481-4226-422A-845E-F990A3E5C64C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0772BE-F346-43C9-A749-C6B7CF76C511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91E620D-EB6D-4742-A853-AF82422ABA98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1502,7 +1502,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1877,24 +1877,24 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6640625" style="32" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="32" customWidth="1"/>
-    <col min="8" max="10" width="8.109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="32" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="32" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="32" customWidth="1"/>
     <col min="13" max="13" width="10" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="32" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="32"/>
+    <col min="14" max="14" width="11.42578125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -1922,7 +1922,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1950,7 +1950,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1978,7 +1978,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2006,7 +2006,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2034,7 +2034,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2062,7 +2062,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -2090,7 +2090,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -2118,7 +2118,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -2146,7 +2146,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -2174,7 +2174,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -2202,7 +2202,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2230,7 +2230,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -2258,7 +2258,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2286,7 +2286,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -2314,7 +2314,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>115</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -2372,7 +2372,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -2400,12 +2400,12 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -2432,12 +2432,12 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
@@ -2464,12 +2464,12 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -2496,7 +2496,7 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2524,12 +2524,12 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -2556,7 +2556,7 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2584,7 +2584,7 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2612,12 +2612,12 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -2644,7 +2644,7 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2672,7 +2672,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2700,7 +2700,7 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>121</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>122</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>124</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="55" t="s">
         <v>126</v>
@@ -2826,7 +2826,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -2854,7 +2854,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -2882,7 +2882,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -2910,7 +2910,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -2938,7 +2938,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -2966,7 +2966,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -2994,7 +2994,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3022,7 +3022,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3050,7 +3050,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -3078,7 +3078,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -3106,7 +3106,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -3134,7 +3134,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -3162,7 +3162,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -3190,7 +3190,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -3218,7 +3218,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -3246,7 +3246,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -3274,7 +3274,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -3302,7 +3302,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -3330,7 +3330,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -3358,7 +3358,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -3386,7 +3386,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -3414,7 +3414,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -3442,7 +3442,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -3470,7 +3470,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -3498,7 +3498,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -3526,7 +3526,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -3554,7 +3554,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -3582,7 +3582,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -3610,7 +3610,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -3638,7 +3638,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -3666,7 +3666,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -3694,7 +3694,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -3722,7 +3722,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -3750,7 +3750,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -3778,7 +3778,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -3806,7 +3806,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -3834,7 +3834,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -3862,7 +3862,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -3890,7 +3890,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -3918,7 +3918,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -3946,7 +3946,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -3974,7 +3974,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4002,7 +4002,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4030,7 +4030,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4058,7 +4058,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -4086,7 +4086,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -4114,7 +4114,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -4142,7 +4142,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -4170,7 +4170,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -4198,7 +4198,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -4226,7 +4226,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -4254,7 +4254,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -4282,7 +4282,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -4310,7 +4310,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -4338,7 +4338,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -4366,7 +4366,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -4394,7 +4394,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -4422,7 +4422,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -4450,7 +4450,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -4478,7 +4478,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -4506,7 +4506,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -4534,7 +4534,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -4562,7 +4562,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -4590,7 +4590,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -4618,7 +4618,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -4646,7 +4646,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -4674,7 +4674,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -4731,40 +4731,40 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="15" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="15"/>
+    <col min="29" max="29" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4878,12 +4878,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>64</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>66</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>67</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>70</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>71</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>72</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>73</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>74</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>75</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>76</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>78</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>79</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>80</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>81</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>82</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>83</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>84</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>86</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>87</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>88</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>89</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>90</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>91</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>92</v>
       </c>
@@ -5474,7 +5474,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -5498,21 +5498,21 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="15" customWidth="1"/>
-    <col min="8" max="31" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="15" customWidth="1"/>
+    <col min="8" max="31" width="7.140625" customWidth="1"/>
     <col min="32" max="32" width="11" customWidth="1"/>
-    <col min="33" max="33" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="AF1" s="38"/>
       <c r="AG1" s="38"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
     </row>
-    <row r="4" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>94</v>
       </c>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="AG5" s="15"/>
     </row>
-    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>94</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>94</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>94</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>94</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>94</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>94</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>94</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>94</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0.97817172107331274</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>94</v>
       </c>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="AG15" s="15"/>
     </row>
-    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>94</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>0.83185402303734834</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0.73189170208617194</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>94</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0.62121577779185166</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>94</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0.50753665598451725</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>94</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>0.38939050015936671</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>94</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>0.288467577478426</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0.21370203747193298</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>94</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>0.1583143631560151</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>94</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>0.11728216482159834</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>95</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>95</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>95</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -8478,7 +8478,7 @@
       <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
     </row>
-    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -8511,7 +8511,7 @@
       <c r="AE29" s="35"/>
       <c r="AF29" s="35"/>
     </row>
-    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -8544,7 +8544,7 @@
       <c r="AE30" s="35"/>
       <c r="AF30" s="35"/>
     </row>
-    <row r="31" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>105</v>
       </c>
@@ -8582,7 +8582,7 @@
       <c r="AG31" s="38"/>
       <c r="AH31" s="38"/>
     </row>
-    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -8615,7 +8615,7 @@
       <c r="AE32" s="35"/>
       <c r="AF32" s="35"/>
     </row>
-    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>16</v>
       </c>
@@ -8623,7 +8623,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="2:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>11</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>94</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>94</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32" t="s">
         <v>94</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32" t="s">
         <v>94</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32" t="s">
         <v>94</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>0.94791311868018946</v>
       </c>
     </row>
-    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
         <v>94</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0.9060850775490854</v>
       </c>
     </row>
-    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32" t="s">
         <v>94</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0.91435706526982952</v>
       </c>
     </row>
-    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>94</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>0.86882412861909741</v>
       </c>
     </row>
-    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32" t="s">
         <v>94</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0.82922695299454818</v>
       </c>
     </row>
-    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>94</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>0.79879829337168895</v>
       </c>
     </row>
-    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32" t="s">
         <v>94</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0.77410832278704111</v>
       </c>
     </row>
-    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
         <v>94</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>0.75463213805523366</v>
       </c>
     </row>
-    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
         <v>94</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>0.73291243695362795</v>
       </c>
     </row>
-    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>94</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>0.66679740354677275</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
         <v>94</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>0.64133899762258684</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32" t="s">
         <v>94</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0.5857178420628868</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32" t="s">
         <v>94</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0.57182695902647174</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32" t="s">
         <v>94</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>0.43476309517427986</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>94</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>0.41274159714086933</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>94</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>0.40009682595636675</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="32" t="s">
         <v>95</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="32" t="s">
         <v>95</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
         <v>95</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -11539,7 +11539,7 @@
       <c r="AE58" s="35"/>
       <c r="AF58" s="35"/>
     </row>
-    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
@@ -11572,7 +11572,7 @@
       <c r="AE59" s="35"/>
       <c r="AF59" s="35"/>
     </row>
-    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
@@ -11605,7 +11605,7 @@
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
     </row>
-    <row r="61" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>109</v>
       </c>
@@ -11643,7 +11643,7 @@
       <c r="AG61" s="38"/>
       <c r="AH61" s="38"/>
     </row>
-    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
@@ -11676,14 +11676,14 @@
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
     </row>
-    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>11</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="32" t="s">
         <v>94</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
         <v>94</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>0.9800667360906824</v>
       </c>
     </row>
-    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="32" t="s">
         <v>94</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>0.9497470049426342</v>
       </c>
     </row>
-    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>94</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>0.90306898283260173</v>
       </c>
     </row>
-    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="32" t="s">
         <v>94</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>0.86715175935853817</v>
       </c>
     </row>
-    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>94</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>0.83870839876337333</v>
       </c>
     </row>
-    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
         <v>94</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>0.79860750405892778</v>
       </c>
     </row>
-    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="32" t="s">
         <v>94</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>0.7511806224131885</v>
       </c>
     </row>
-    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
         <v>94</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>0.69653100220097497</v>
       </c>
     </row>
-    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="32" t="s">
         <v>94</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>0.62902859094617636</v>
       </c>
     </row>
-    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="32" t="s">
         <v>94</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>0.55432706683831479</v>
       </c>
     </row>
-    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="32" t="s">
         <v>94</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>0.48050397200271588</v>
       </c>
     </row>
-    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="32" t="s">
         <v>94</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>0.40170806551059934</v>
       </c>
     </row>
-    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32" t="s">
         <v>94</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>0.32931880209238984</v>
       </c>
     </row>
-    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="32" t="s">
         <v>94</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>0.26434993477403756</v>
       </c>
     </row>
-    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="32" t="s">
         <v>95</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="32" t="s">
         <v>95</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="17" t="s">
         <v>95</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -14004,7 +14004,7 @@
       <c r="AE83" s="35"/>
       <c r="AF83" s="35"/>
     </row>
-    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -14037,7 +14037,7 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
@@ -14070,7 +14070,7 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:34" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" s="32" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>111</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="AG86" s="38"/>
       <c r="AH86" s="38"/>
     </row>
-    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
@@ -14141,14 +14141,14 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="1:34" s="32" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" s="32" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>11</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32" t="s">
         <v>94</v>
       </c>
@@ -14395,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="32" t="s">
         <v>94</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>0.98529141679235754</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="32" t="s">
         <v>94</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>0.93352234155599045</v>
       </c>
     </row>
-    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="32" t="s">
         <v>94</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>0.86853044848171546</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="32" t="s">
         <v>94</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>0.80912695485417574</v>
       </c>
     </row>
-    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="32" t="s">
         <v>94</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>0.74663612868686757</v>
       </c>
     </row>
-    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32" t="s">
         <v>94</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>0.68748310495340637</v>
       </c>
     </row>
-    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="32" t="s">
         <v>94</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>0.62348824545899562</v>
       </c>
     </row>
-    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="32" t="s">
         <v>94</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>0.55224298141356309</v>
       </c>
     </row>
-    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32" t="s">
         <v>94</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>0.47617464080799254</v>
       </c>
     </row>
-    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32" t="s">
         <v>94</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>0.39917052340536635</v>
       </c>
     </row>
-    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32" t="s">
         <v>94</v>
       </c>
@@ -15704,7 +15704,7 @@
         <v>0.33335379569397006</v>
       </c>
     </row>
-    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32" t="s">
         <v>94</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>0.27182645076790246</v>
       </c>
     </row>
-    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="32" t="s">
         <v>94</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>0.22234613200547687</v>
       </c>
     </row>
-    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="32" t="s">
         <v>94</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>0.17649556942575553</v>
       </c>
     </row>
-    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32" t="s">
         <v>95</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32" t="s">
         <v>95</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="17" t="s">
         <v>95</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
@@ -16469,7 +16469,7 @@
       <c r="AE108" s="35"/>
       <c r="AF108" s="35"/>
     </row>
-    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
@@ -16502,12 +16502,12 @@
       <c r="AE109" s="35"/>
       <c r="AF109" s="35"/>
     </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B111" s="9" t="s">
         <v>16</v>
       </c>
@@ -16515,7 +16515,7 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>11</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>96</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B114" s="32" t="s">
         <v>96</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B115" s="32" t="s">
         <v>96</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B116" s="17" t="s">
         <v>96</v>
       </c>
@@ -17041,16 +17041,16 @@
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V119" s="15"/>
     </row>
-    <row r="120" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V120" s="15"/>
     </row>
-    <row r="121" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:34" x14ac:dyDescent="0.25">
       <c r="V121" s="15"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F134" s="15"/>
     </row>
   </sheetData>
@@ -17068,12 +17068,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>102</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="33" t="s">
         <v>97</v>
@@ -17096,7 +17096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="30">
         <v>1</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>98.52914167923575</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="30">
         <v>3</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>93.352234155599049</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="30">
         <v>4</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>86.85304484817155</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="30">
         <v>5</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>80.912695485417572</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="30">
         <v>6</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>74.663612868686755</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="30">
         <v>7</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>68.748310495340633</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="30">
         <v>8</v>
       </c>
@@ -17239,7 +17239,7 @@
         <v>62.348824545899561</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="30">
         <v>9</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>55.224298141356314</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="30">
         <v>10</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>47.617464080799252</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>11</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>39.917052340536635</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>12</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>33.335379569397006</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>13</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>27.182645076790244</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="30">
         <v>14</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>22.234613200547688</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>15</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>17.649556942575554</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="30">
         <v>16</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>13.445173927988153</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <v>17</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>10.369661419333884</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <v>18</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>7.9509162050425948</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>19</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>5.8300319058096814</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <v>20</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>4.9971702049797271</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>103</v>
       </c>
@@ -17458,7 +17458,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
@@ -17468,7 +17468,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
@@ -17478,7 +17478,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
@@ -17487,7 +17487,7 @@
       <c r="I27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="26"/>
       <c r="D28" s="27"/>
@@ -17497,14 +17497,14 @@
       <c r="J28" s="32"/>
       <c r="K28" s="32"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
@@ -17526,30 +17526,30 @@
       <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
@@ -17562,7 +17562,7 @@
       <c r="AO2" s="11"/>
       <c r="AP2" s="11"/>
     </row>
-    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -17732,15 +17732,15 @@
       <selection activeCell="AP208" sqref="AP208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -17803,7 +17803,7 @@
       <c r="BI3" s="15"/>
       <c r="BJ3" s="15"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -17866,7 +17866,7 @@
       <c r="BI4" s="15"/>
       <c r="BJ4" s="15"/>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -17929,7 +17929,7 @@
       <c r="BI5" s="15"/>
       <c r="BJ5" s="15"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -17992,7 +17992,7 @@
       <c r="BI6" s="15"/>
       <c r="BJ6" s="15"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -18055,7 +18055,7 @@
       <c r="BI7" s="15"/>
       <c r="BJ7" s="15"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -18118,7 +18118,7 @@
       <c r="BI8" s="15"/>
       <c r="BJ8" s="15"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -18181,7 +18181,7 @@
       <c r="BI9" s="15"/>
       <c r="BJ9" s="15"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -18244,7 +18244,7 @@
       <c r="BI10" s="15"/>
       <c r="BJ10" s="15"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -18307,7 +18307,7 @@
       <c r="BI11" s="15"/>
       <c r="BJ11" s="15"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -18370,7 +18370,7 @@
       <c r="BI12" s="15"/>
       <c r="BJ12" s="15"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -18433,7 +18433,7 @@
       <c r="BI13" s="15"/>
       <c r="BJ13" s="15"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -18496,7 +18496,7 @@
       <c r="BI14" s="15"/>
       <c r="BJ14" s="15"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -18610,7 +18610,7 @@
       <c r="DG15" s="15"/>
       <c r="DH15" s="15"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -18724,7 +18724,7 @@
       <c r="DG16" s="15"/>
       <c r="DH16" s="15"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -18838,7 +18838,7 @@
       <c r="DG17" s="15"/>
       <c r="DH17" s="15"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -18952,7 +18952,7 @@
       <c r="DG18" s="15"/>
       <c r="DH18" s="15"/>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -19066,7 +19066,7 @@
       <c r="DG19" s="15"/>
       <c r="DH19" s="15"/>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -19180,7 +19180,7 @@
       <c r="DG20" s="15"/>
       <c r="DH20" s="15"/>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -19294,7 +19294,7 @@
       <c r="DG21" s="15"/>
       <c r="DH21" s="15"/>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -19408,7 +19408,7 @@
       <c r="DG22" s="15"/>
       <c r="DH22" s="15"/>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -19522,7 +19522,7 @@
       <c r="DG23" s="15"/>
       <c r="DH23" s="15"/>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -19636,7 +19636,7 @@
       <c r="DG24" s="15"/>
       <c r="DH24" s="15"/>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -19750,7 +19750,7 @@
       <c r="DG25" s="15"/>
       <c r="DH25" s="15"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -19864,7 +19864,7 @@
       <c r="DG26" s="15"/>
       <c r="DH26" s="15"/>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -19978,7 +19978,7 @@
       <c r="DG27" s="15"/>
       <c r="DH27" s="15"/>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -20092,7 +20092,7 @@
       <c r="DG28" s="15"/>
       <c r="DH28" s="15"/>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -20206,7 +20206,7 @@
       <c r="DG29" s="15"/>
       <c r="DH29" s="15"/>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -20320,7 +20320,7 @@
       <c r="DG30" s="15"/>
       <c r="DH30" s="15"/>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -20434,7 +20434,7 @@
       <c r="DG31" s="15"/>
       <c r="DH31" s="15"/>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -20548,7 +20548,7 @@
       <c r="DG32" s="15"/>
       <c r="DH32" s="15"/>
     </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -20662,7 +20662,7 @@
       <c r="DG33" s="15"/>
       <c r="DH33" s="15"/>
     </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -20776,7 +20776,7 @@
       <c r="DG34" s="15"/>
       <c r="DH34" s="15"/>
     </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20890,7 +20890,7 @@
       <c r="DG35" s="15"/>
       <c r="DH35" s="15"/>
     </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -21004,7 +21004,7 @@
       <c r="DG36" s="15"/>
       <c r="DH36" s="15"/>
     </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -21118,7 +21118,7 @@
       <c r="DG37" s="15"/>
       <c r="DH37" s="15"/>
     </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -21232,7 +21232,7 @@
       <c r="DG38" s="15"/>
       <c r="DH38" s="15"/>
     </row>
-    <row r="39" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -21346,7 +21346,7 @@
       <c r="DG39" s="15"/>
       <c r="DH39" s="15"/>
     </row>
-    <row r="40" spans="1:112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:112" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -21460,7 +21460,7 @@
       <c r="DG40" s="15"/>
       <c r="DH40" s="15"/>
     </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -21574,7 +21574,7 @@
       <c r="DG41" s="15"/>
       <c r="DH41" s="15"/>
     </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -21688,7 +21688,7 @@
       <c r="DG42" s="15"/>
       <c r="DH42" s="15"/>
     </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -21802,7 +21802,7 @@
       <c r="DG43" s="15"/>
       <c r="DH43" s="15"/>
     </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -21916,7 +21916,7 @@
       <c r="DG44" s="15"/>
       <c r="DH44" s="15"/>
     </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -22030,7 +22030,7 @@
       <c r="DG45" s="15"/>
       <c r="DH45" s="15"/>
     </row>
-    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -22144,7 +22144,7 @@
       <c r="DG46" s="15"/>
       <c r="DH46" s="15"/>
     </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -22258,7 +22258,7 @@
       <c r="DG47" s="15"/>
       <c r="DH47" s="15"/>
     </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -22372,7 +22372,7 @@
       <c r="DG48" s="15"/>
       <c r="DH48" s="15"/>
     </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -22486,7 +22486,7 @@
       <c r="DG49" s="15"/>
       <c r="DH49" s="15"/>
     </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -22600,7 +22600,7 @@
       <c r="DG50" s="15"/>
       <c r="DH50" s="15"/>
     </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -22714,7 +22714,7 @@
       <c r="DG51" s="15"/>
       <c r="DH51" s="15"/>
     </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -22828,7 +22828,7 @@
       <c r="DG52" s="15"/>
       <c r="DH52" s="15"/>
     </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -22942,7 +22942,7 @@
       <c r="DG53" s="15"/>
       <c r="DH53" s="15"/>
     </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -23056,7 +23056,7 @@
       <c r="DG54" s="15"/>
       <c r="DH54" s="15"/>
     </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -23170,7 +23170,7 @@
       <c r="DG55" s="15"/>
       <c r="DH55" s="15"/>
     </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -23284,7 +23284,7 @@
       <c r="DG56" s="15"/>
       <c r="DH56" s="15"/>
     </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -23398,7 +23398,7 @@
       <c r="DG57" s="15"/>
       <c r="DH57" s="15"/>
     </row>
-    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -23512,7 +23512,7 @@
       <c r="DG58" s="15"/>
       <c r="DH58" s="15"/>
     </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -23626,35 +23626,35 @@
       <c r="DG59" s="15"/>
       <c r="DH59" s="15"/>
     </row>
-    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -23768,7 +23768,7 @@
       <c r="DG88" s="15"/>
       <c r="DH88" s="15"/>
     </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -23882,7 +23882,7 @@
       <c r="DG89" s="15"/>
       <c r="DH89" s="15"/>
     </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -23996,7 +23996,7 @@
       <c r="DG90" s="15"/>
       <c r="DH90" s="15"/>
     </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -24110,7 +24110,7 @@
       <c r="DG91" s="15"/>
       <c r="DH91" s="15"/>
     </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -24224,7 +24224,7 @@
       <c r="DG92" s="15"/>
       <c r="DH92" s="15"/>
     </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -24338,7 +24338,7 @@
       <c r="DG93" s="15"/>
       <c r="DH93" s="15"/>
     </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -24452,7 +24452,7 @@
       <c r="DG94" s="15"/>
       <c r="DH94" s="15"/>
     </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -24566,7 +24566,7 @@
       <c r="DG95" s="15"/>
       <c r="DH95" s="15"/>
     </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -24680,7 +24680,7 @@
       <c r="DG96" s="15"/>
       <c r="DH96" s="15"/>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -24794,7 +24794,7 @@
       <c r="DG97" s="15"/>
       <c r="DH97" s="15"/>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -24908,7 +24908,7 @@
       <c r="DG98" s="15"/>
       <c r="DH98" s="15"/>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -25022,7 +25022,7 @@
       <c r="DG99" s="15"/>
       <c r="DH99" s="15"/>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -25136,7 +25136,7 @@
       <c r="DG100" s="15"/>
       <c r="DH100" s="15"/>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -25250,7 +25250,7 @@
       <c r="DG101" s="15"/>
       <c r="DH101" s="15"/>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -25364,7 +25364,7 @@
       <c r="DG102" s="15"/>
       <c r="DH102" s="15"/>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -25478,7 +25478,7 @@
       <c r="DG103" s="15"/>
       <c r="DH103" s="15"/>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -25592,7 +25592,7 @@
       <c r="DG104" s="15"/>
       <c r="DH104" s="15"/>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -25706,7 +25706,7 @@
       <c r="DG105" s="15"/>
       <c r="DH105" s="15"/>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -25820,7 +25820,7 @@
       <c r="DG106" s="15"/>
       <c r="DH106" s="15"/>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -25934,7 +25934,7 @@
       <c r="DG107" s="15"/>
       <c r="DH107" s="15"/>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -26048,7 +26048,7 @@
       <c r="DG108" s="15"/>
       <c r="DH108" s="15"/>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -26162,7 +26162,7 @@
       <c r="DG109" s="15"/>
       <c r="DH109" s="15"/>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -26276,7 +26276,7 @@
       <c r="DG110" s="15"/>
       <c r="DH110" s="15"/>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -26390,7 +26390,7 @@
       <c r="DG111" s="15"/>
       <c r="DH111" s="15"/>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -26504,7 +26504,7 @@
       <c r="DG112" s="15"/>
       <c r="DH112" s="15"/>
     </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -26618,7 +26618,7 @@
       <c r="DG113" s="15"/>
       <c r="DH113" s="15"/>
     </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15"/>
@@ -26732,7 +26732,7 @@
       <c r="DG114" s="15"/>
       <c r="DH114" s="15"/>
     </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
@@ -26846,7 +26846,7 @@
       <c r="DG115" s="15"/>
       <c r="DH115" s="15"/>
     </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
@@ -26960,7 +26960,7 @@
       <c r="DG116" s="15"/>
       <c r="DH116" s="15"/>
     </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -27074,7 +27074,7 @@
       <c r="DG117" s="15"/>
       <c r="DH117" s="15"/>
     </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15"/>
       <c r="C118" s="15"/>
@@ -27188,7 +27188,7 @@
       <c r="DG118" s="15"/>
       <c r="DH118" s="15"/>
     </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15"/>
       <c r="C119" s="15"/>
@@ -27302,7 +27302,7 @@
       <c r="DG119" s="15"/>
       <c r="DH119" s="15"/>
     </row>
-    <row r="120" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15"/>
@@ -27416,7 +27416,7 @@
       <c r="DG120" s="15"/>
       <c r="DH120" s="15"/>
     </row>
-    <row r="121" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="15"/>
       <c r="C121" s="15"/>
@@ -27530,7 +27530,7 @@
       <c r="DG121" s="15"/>
       <c r="DH121" s="15"/>
     </row>
-    <row r="122" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="15"/>
       <c r="C122" s="15"/>
@@ -27644,7 +27644,7 @@
       <c r="DG122" s="15"/>
       <c r="DH122" s="15"/>
     </row>
-    <row r="123" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="15"/>
       <c r="C123" s="15"/>
@@ -27758,7 +27758,7 @@
       <c r="DG123" s="15"/>
       <c r="DH123" s="15"/>
     </row>
-    <row r="124" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
@@ -27872,7 +27872,7 @@
       <c r="DG124" s="15"/>
       <c r="DH124" s="15"/>
     </row>
-    <row r="125" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
@@ -27986,7 +27986,7 @@
       <c r="DG125" s="15"/>
       <c r="DH125" s="15"/>
     </row>
-    <row r="126" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
@@ -28100,9 +28100,9 @@
       <c r="DG126" s="15"/>
       <c r="DH126" s="15"/>
     </row>
-    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -28216,7 +28216,7 @@
       <c r="DG129" s="15"/>
       <c r="DH129" s="15"/>
     </row>
-    <row r="130" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -28330,7 +28330,7 @@
       <c r="DG130" s="15"/>
       <c r="DH130" s="15"/>
     </row>
-    <row r="131" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -28444,7 +28444,7 @@
       <c r="DG131" s="15"/>
       <c r="DH131" s="15"/>
     </row>
-    <row r="132" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -28558,7 +28558,7 @@
       <c r="DG132" s="15"/>
       <c r="DH132" s="15"/>
     </row>
-    <row r="133" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -28672,7 +28672,7 @@
       <c r="DG133" s="15"/>
       <c r="DH133" s="15"/>
     </row>
-    <row r="134" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -28786,7 +28786,7 @@
       <c r="DG134" s="15"/>
       <c r="DH134" s="15"/>
     </row>
-    <row r="135" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -28900,7 +28900,7 @@
       <c r="DG135" s="15"/>
       <c r="DH135" s="15"/>
     </row>
-    <row r="136" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -29014,7 +29014,7 @@
       <c r="DG136" s="15"/>
       <c r="DH136" s="15"/>
     </row>
-    <row r="137" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -29128,7 +29128,7 @@
       <c r="DG137" s="15"/>
       <c r="DH137" s="15"/>
     </row>
-    <row r="138" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -29242,7 +29242,7 @@
       <c r="DG138" s="15"/>
       <c r="DH138" s="15"/>
     </row>
-    <row r="139" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -29356,7 +29356,7 @@
       <c r="DG139" s="15"/>
       <c r="DH139" s="15"/>
     </row>
-    <row r="140" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -29470,7 +29470,7 @@
       <c r="DG140" s="15"/>
       <c r="DH140" s="15"/>
     </row>
-    <row r="141" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -29584,7 +29584,7 @@
       <c r="DG141" s="15"/>
       <c r="DH141" s="15"/>
     </row>
-    <row r="142" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -29698,7 +29698,7 @@
       <c r="DG142" s="15"/>
       <c r="DH142" s="15"/>
     </row>
-    <row r="143" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -29812,7 +29812,7 @@
       <c r="DG143" s="15"/>
       <c r="DH143" s="15"/>
     </row>
-    <row r="144" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -29926,7 +29926,7 @@
       <c r="DG144" s="15"/>
       <c r="DH144" s="15"/>
     </row>
-    <row r="145" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -30040,7 +30040,7 @@
       <c r="DG145" s="15"/>
       <c r="DH145" s="15"/>
     </row>
-    <row r="146" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -30154,7 +30154,7 @@
       <c r="DG146" s="15"/>
       <c r="DH146" s="15"/>
     </row>
-    <row r="147" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -30268,7 +30268,7 @@
       <c r="DG147" s="15"/>
       <c r="DH147" s="15"/>
     </row>
-    <row r="148" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -30382,7 +30382,7 @@
       <c r="DG148" s="15"/>
       <c r="DH148" s="15"/>
     </row>
-    <row r="149" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -30496,7 +30496,7 @@
       <c r="DG149" s="15"/>
       <c r="DH149" s="15"/>
     </row>
-    <row r="150" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -30610,7 +30610,7 @@
       <c r="DG150" s="15"/>
       <c r="DH150" s="15"/>
     </row>
-    <row r="151" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -30724,7 +30724,7 @@
       <c r="DG151" s="15"/>
       <c r="DH151" s="15"/>
     </row>
-    <row r="152" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -30838,7 +30838,7 @@
       <c r="DG152" s="15"/>
       <c r="DH152" s="15"/>
     </row>
-    <row r="153" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -30952,7 +30952,7 @@
       <c r="DG153" s="15"/>
       <c r="DH153" s="15"/>
     </row>
-    <row r="154" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -31066,7 +31066,7 @@
       <c r="DG154" s="15"/>
       <c r="DH154" s="15"/>
     </row>
-    <row r="155" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -31180,7 +31180,7 @@
       <c r="DG155" s="15"/>
       <c r="DH155" s="15"/>
     </row>
-    <row r="156" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -31294,7 +31294,7 @@
       <c r="DG156" s="15"/>
       <c r="DH156" s="15"/>
     </row>
-    <row r="157" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -31408,7 +31408,7 @@
       <c r="DG157" s="15"/>
       <c r="DH157" s="15"/>
     </row>
-    <row r="158" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -31522,7 +31522,7 @@
       <c r="DG158" s="15"/>
       <c r="DH158" s="15"/>
     </row>
-    <row r="159" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -31636,7 +31636,7 @@
       <c r="DG159" s="15"/>
       <c r="DH159" s="15"/>
     </row>
-    <row r="160" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="15"/>
       <c r="C160" s="15"/>
@@ -31750,7 +31750,7 @@
       <c r="DG160" s="15"/>
       <c r="DH160" s="15"/>
     </row>
-    <row r="161" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -31864,7 +31864,7 @@
       <c r="DG161" s="15"/>
       <c r="DH161" s="15"/>
     </row>
-    <row r="162" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="15"/>
       <c r="C162" s="15"/>
@@ -31978,7 +31978,7 @@
       <c r="DG162" s="15"/>
       <c r="DH162" s="15"/>
     </row>
-    <row r="163" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="15"/>
       <c r="C163" s="15"/>
@@ -32092,7 +32092,7 @@
       <c r="DG163" s="15"/>
       <c r="DH163" s="15"/>
     </row>
-    <row r="164" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="15"/>
@@ -32206,7 +32206,7 @@
       <c r="DG164" s="15"/>
       <c r="DH164" s="15"/>
     </row>
-    <row r="165" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="15"/>
       <c r="C165" s="15"/>
@@ -32320,7 +32320,7 @@
       <c r="DG165" s="15"/>
       <c r="DH165" s="15"/>
     </row>
-    <row r="166" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15"/>
@@ -32434,7 +32434,7 @@
       <c r="DG166" s="15"/>
       <c r="DH166" s="15"/>
     </row>
-    <row r="167" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
       <c r="B167" s="15"/>
       <c r="C167" s="15"/>
@@ -32548,7 +32548,7 @@
       <c r="DG167" s="15"/>
       <c r="DH167" s="15"/>
     </row>
-    <row r="168" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="15"/>
       <c r="C168" s="15"/>
@@ -32662,7 +32662,7 @@
       <c r="DG168" s="15"/>
       <c r="DH168" s="15"/>
     </row>
-    <row r="169" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15"/>
@@ -32776,7 +32776,7 @@
       <c r="DG169" s="15"/>
       <c r="DH169" s="15"/>
     </row>
-    <row r="170" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="15"/>
       <c r="C170" s="15"/>
@@ -32890,7 +32890,7 @@
       <c r="DG170" s="15"/>
       <c r="DH170" s="15"/>
     </row>
-    <row r="171" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A171" s="15"/>
       <c r="B171" s="15"/>
       <c r="C171" s="15"/>
@@ -33004,7 +33004,7 @@
       <c r="DG171" s="15"/>
       <c r="DH171" s="15"/>
     </row>
-    <row r="172" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15"/>
@@ -33118,7 +33118,7 @@
       <c r="DG172" s="15"/>
       <c r="DH172" s="15"/>
     </row>
-    <row r="173" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
       <c r="B173" s="15"/>
       <c r="C173" s="15"/>
@@ -33232,7 +33232,7 @@
       <c r="DG173" s="15"/>
       <c r="DH173" s="15"/>
     </row>
-    <row r="174" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
       <c r="B174" s="15"/>
       <c r="C174" s="15"/>
@@ -33346,7 +33346,7 @@
       <c r="DG174" s="15"/>
       <c r="DH174" s="15"/>
     </row>
-    <row r="175" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A175" s="15"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15"/>
@@ -33460,7 +33460,7 @@
       <c r="DG175" s="15"/>
       <c r="DH175" s="15"/>
     </row>
-    <row r="176" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
       <c r="B176" s="15"/>
       <c r="C176" s="15"/>
@@ -33574,7 +33574,7 @@
       <c r="DG176" s="15"/>
       <c r="DH176" s="15"/>
     </row>
-    <row r="177" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A177" s="15"/>
       <c r="B177" s="15"/>
       <c r="C177" s="15"/>
@@ -33688,7 +33688,7 @@
       <c r="DG177" s="15"/>
       <c r="DH177" s="15"/>
     </row>
-    <row r="178" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A178" s="15"/>
       <c r="B178" s="15"/>
       <c r="C178" s="15"/>
@@ -33802,7 +33802,7 @@
       <c r="DG178" s="15"/>
       <c r="DH178" s="15"/>
     </row>
-    <row r="179" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A179" s="15"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
@@ -33916,7 +33916,7 @@
       <c r="DG179" s="15"/>
       <c r="DH179" s="15"/>
     </row>
-    <row r="180" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A180" s="15"/>
       <c r="B180" s="15"/>
       <c r="C180" s="15"/>
@@ -34030,7 +34030,7 @@
       <c r="DG180" s="15"/>
       <c r="DH180" s="15"/>
     </row>
-    <row r="181" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A181" s="15"/>
       <c r="B181" s="15"/>
       <c r="C181" s="15"/>
@@ -34144,7 +34144,7 @@
       <c r="DG181" s="15"/>
       <c r="DH181" s="15"/>
     </row>
-    <row r="182" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A182" s="15"/>
       <c r="B182" s="15"/>
       <c r="C182" s="15"/>
@@ -34258,7 +34258,7 @@
       <c r="DG182" s="15"/>
       <c r="DH182" s="15"/>
     </row>
-    <row r="183" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
       <c r="B183" s="15"/>
       <c r="C183" s="15"/>
@@ -34372,7 +34372,7 @@
       <c r="DG183" s="15"/>
       <c r="DH183" s="15"/>
     </row>
-    <row r="184" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -34486,7 +34486,7 @@
       <c r="DG184" s="15"/>
       <c r="DH184" s="15"/>
     </row>
-    <row r="185" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A185" s="15"/>
       <c r="B185" s="15"/>
       <c r="C185" s="15"/>
@@ -34600,7 +34600,7 @@
       <c r="DG185" s="15"/>
       <c r="DH185" s="15"/>
     </row>
-    <row r="186" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A186" s="15"/>
       <c r="B186" s="15"/>
       <c r="C186" s="15"/>
@@ -34714,7 +34714,7 @@
       <c r="DG186" s="15"/>
       <c r="DH186" s="15"/>
     </row>
-    <row r="187" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
       <c r="B187" s="15"/>
       <c r="C187" s="15"/>
@@ -34828,7 +34828,7 @@
       <c r="DG187" s="15"/>
       <c r="DH187" s="15"/>
     </row>
-    <row r="188" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A188" s="15"/>
       <c r="B188" s="15"/>
       <c r="C188" s="15"/>
@@ -34942,7 +34942,7 @@
       <c r="DG188" s="15"/>
       <c r="DH188" s="15"/>
     </row>
-    <row r="189" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
       <c r="B189" s="15"/>
       <c r="C189" s="15"/>
@@ -35056,7 +35056,7 @@
       <c r="DG189" s="15"/>
       <c r="DH189" s="15"/>
     </row>
-    <row r="190" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -35170,7 +35170,7 @@
       <c r="DG190" s="15"/>
       <c r="DH190" s="15"/>
     </row>
-    <row r="191" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A191" s="15"/>
       <c r="B191" s="15"/>
       <c r="C191" s="15"/>
@@ -35284,7 +35284,7 @@
       <c r="DG191" s="15"/>
       <c r="DH191" s="15"/>
     </row>
-    <row r="192" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A192" s="15"/>
       <c r="B192" s="15"/>
       <c r="C192" s="15"/>
@@ -35398,7 +35398,7 @@
       <c r="DG192" s="15"/>
       <c r="DH192" s="15"/>
     </row>
-    <row r="193" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="15"/>
       <c r="C193" s="15"/>
@@ -35512,7 +35512,7 @@
       <c r="DG193" s="15"/>
       <c r="DH193" s="15"/>
     </row>
-    <row r="194" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A194" s="15"/>
       <c r="B194" s="15"/>
       <c r="C194" s="15"/>
@@ -35626,7 +35626,7 @@
       <c r="DG194" s="15"/>
       <c r="DH194" s="15"/>
     </row>
-    <row r="195" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A195" s="15"/>
       <c r="B195" s="15"/>
       <c r="C195" s="15"/>
@@ -35740,7 +35740,7 @@
       <c r="DG195" s="15"/>
       <c r="DH195" s="15"/>
     </row>
-    <row r="196" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
       <c r="B196" s="15"/>
       <c r="C196" s="15"/>
@@ -35854,7 +35854,7 @@
       <c r="DG196" s="15"/>
       <c r="DH196" s="15"/>
     </row>
-    <row r="197" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -35968,7 +35968,7 @@
       <c r="DG197" s="15"/>
       <c r="DH197" s="15"/>
     </row>
-    <row r="198" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A198" s="15"/>
       <c r="B198" s="15"/>
       <c r="C198" s="15"/>
@@ -36082,7 +36082,7 @@
       <c r="DG198" s="15"/>
       <c r="DH198" s="15"/>
     </row>
-    <row r="199" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -36196,7 +36196,7 @@
       <c r="DG199" s="15"/>
       <c r="DH199" s="15"/>
     </row>
-    <row r="200" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -36310,7 +36310,7 @@
       <c r="DG200" s="15"/>
       <c r="DH200" s="15"/>
     </row>
-    <row r="201" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -36424,7 +36424,7 @@
       <c r="DG201" s="15"/>
       <c r="DH201" s="15"/>
     </row>
-    <row r="202" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -36538,7 +36538,7 @@
       <c r="DG202" s="15"/>
       <c r="DH202" s="15"/>
     </row>
-    <row r="203" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -36652,7 +36652,7 @@
       <c r="DG203" s="15"/>
       <c r="DH203" s="15"/>
     </row>
-    <row r="204" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -36766,7 +36766,7 @@
       <c r="DG204" s="15"/>
       <c r="DH204" s="15"/>
     </row>
-    <row r="205" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -36880,7 +36880,7 @@
       <c r="DG205" s="15"/>
       <c r="DH205" s="15"/>
     </row>
-    <row r="206" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -36994,7 +36994,7 @@
       <c r="DG206" s="15"/>
       <c r="DH206" s="15"/>
     </row>
-    <row r="207" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A207" s="15"/>
       <c r="B207" s="15"/>
       <c r="C207" s="15"/>
@@ -37108,7 +37108,7 @@
       <c r="DG207" s="15"/>
       <c r="DH207" s="15"/>
     </row>
-    <row r="208" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A208" s="15"/>
       <c r="B208" s="15"/>
       <c r="C208" s="15"/>
@@ -37222,7 +37222,7 @@
       <c r="DG208" s="15"/>
       <c r="DH208" s="15"/>
     </row>
-    <row r="209" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A209" s="15"/>
       <c r="B209" s="15"/>
       <c r="C209" s="15"/>
@@ -37336,7 +37336,7 @@
       <c r="DG209" s="15"/>
       <c r="DH209" s="15"/>
     </row>
-    <row r="210" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A210" s="15"/>
       <c r="B210" s="15"/>
       <c r="C210" s="15"/>
@@ -37450,8 +37450,8 @@
       <c r="DG210" s="15"/>
       <c r="DH210" s="15"/>
     </row>
-    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:112" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A212" s="15"/>
       <c r="B212" s="15"/>
       <c r="C212" s="15"/>
@@ -37565,7 +37565,7 @@
       <c r="DG212" s="15"/>
       <c r="DH212" s="15"/>
     </row>
-    <row r="213" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A213" s="15"/>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -37679,7 +37679,7 @@
       <c r="DG213" s="15"/>
       <c r="DH213" s="15"/>
     </row>
-    <row r="214" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A214" s="15"/>
       <c r="B214" s="15"/>
       <c r="C214" s="15"/>
@@ -37793,7 +37793,7 @@
       <c r="DG214" s="15"/>
       <c r="DH214" s="15"/>
     </row>
-    <row r="215" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A215" s="15"/>
       <c r="B215" s="15"/>
       <c r="C215" s="15"/>
@@ -37907,7 +37907,7 @@
       <c r="DG215" s="15"/>
       <c r="DH215" s="15"/>
     </row>
-    <row r="216" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A216" s="15"/>
       <c r="B216" s="15"/>
       <c r="C216" s="15"/>
@@ -38021,7 +38021,7 @@
       <c r="DG216" s="15"/>
       <c r="DH216" s="15"/>
     </row>
-    <row r="217" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A217" s="15"/>
       <c r="B217" s="15"/>
       <c r="C217" s="15"/>
@@ -38135,7 +38135,7 @@
       <c r="DG217" s="15"/>
       <c r="DH217" s="15"/>
     </row>
-    <row r="218" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A218" s="15"/>
       <c r="B218" s="15"/>
       <c r="C218" s="15"/>
@@ -38249,7 +38249,7 @@
       <c r="DG218" s="15"/>
       <c r="DH218" s="15"/>
     </row>
-    <row r="219" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A219" s="15"/>
       <c r="B219" s="15"/>
       <c r="C219" s="15"/>
@@ -38363,7 +38363,7 @@
       <c r="DG219" s="15"/>
       <c r="DH219" s="15"/>
     </row>
-    <row r="220" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A220" s="15"/>
       <c r="B220" s="15"/>
       <c r="C220" s="15"/>
@@ -38477,7 +38477,7 @@
       <c r="DG220" s="15"/>
       <c r="DH220" s="15"/>
     </row>
-    <row r="221" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A221" s="15"/>
       <c r="B221" s="15"/>
       <c r="C221" s="15"/>
@@ -38591,7 +38591,7 @@
       <c r="DG221" s="15"/>
       <c r="DH221" s="15"/>
     </row>
-    <row r="222" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A222" s="15"/>
       <c r="B222" s="15"/>
       <c r="C222" s="15"/>
@@ -38705,7 +38705,7 @@
       <c r="DG222" s="15"/>
       <c r="DH222" s="15"/>
     </row>
-    <row r="223" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A223" s="15"/>
       <c r="B223" s="15"/>
       <c r="C223" s="15"/>
@@ -38819,7 +38819,7 @@
       <c r="DG223" s="15"/>
       <c r="DH223" s="15"/>
     </row>
-    <row r="224" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A224" s="15"/>
       <c r="B224" s="15"/>
       <c r="C224" s="15"/>
@@ -38933,7 +38933,7 @@
       <c r="DG224" s="15"/>
       <c r="DH224" s="15"/>
     </row>
-    <row r="225" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A225" s="15"/>
       <c r="B225" s="15"/>
       <c r="C225" s="15"/>
@@ -39047,7 +39047,7 @@
       <c r="DG225" s="15"/>
       <c r="DH225" s="15"/>
     </row>
-    <row r="226" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A226" s="15"/>
       <c r="B226" s="15"/>
       <c r="C226" s="15"/>
@@ -39161,7 +39161,7 @@
       <c r="DG226" s="15"/>
       <c r="DH226" s="15"/>
     </row>
-    <row r="227" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A227" s="15"/>
       <c r="B227" s="15"/>
       <c r="C227" s="15"/>
@@ -39275,7 +39275,7 @@
       <c r="DG227" s="15"/>
       <c r="DH227" s="15"/>
     </row>
-    <row r="228" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A228" s="15"/>
       <c r="B228" s="15"/>
       <c r="C228" s="15"/>
@@ -39389,7 +39389,7 @@
       <c r="DG228" s="15"/>
       <c r="DH228" s="15"/>
     </row>
-    <row r="229" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A229" s="15"/>
       <c r="B229" s="15"/>
       <c r="C229" s="15"/>
@@ -39503,7 +39503,7 @@
       <c r="DG229" s="15"/>
       <c r="DH229" s="15"/>
     </row>
-    <row r="230" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A230" s="15"/>
       <c r="B230" s="15"/>
       <c r="C230" s="15"/>
@@ -39617,7 +39617,7 @@
       <c r="DG230" s="15"/>
       <c r="DH230" s="15"/>
     </row>
-    <row r="231" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A231" s="15"/>
       <c r="B231" s="15"/>
       <c r="C231" s="15"/>
@@ -39731,7 +39731,7 @@
       <c r="DG231" s="15"/>
       <c r="DH231" s="15"/>
     </row>
-    <row r="232" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A232" s="15"/>
       <c r="B232" s="15"/>
       <c r="C232" s="15"/>
@@ -39845,7 +39845,7 @@
       <c r="DG232" s="15"/>
       <c r="DH232" s="15"/>
     </row>
-    <row r="233" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A233" s="15"/>
       <c r="B233" s="15"/>
       <c r="C233" s="15"/>
@@ -39959,7 +39959,7 @@
       <c r="DG233" s="15"/>
       <c r="DH233" s="15"/>
     </row>
-    <row r="234" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A234" s="15"/>
       <c r="B234" s="15"/>
       <c r="C234" s="15"/>
@@ -40073,7 +40073,7 @@
       <c r="DG234" s="15"/>
       <c r="DH234" s="15"/>
     </row>
-    <row r="235" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A235" s="15"/>
       <c r="B235" s="15"/>
       <c r="C235" s="15"/>
@@ -40187,7 +40187,7 @@
       <c r="DG235" s="15"/>
       <c r="DH235" s="15"/>
     </row>
-    <row r="236" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A236" s="15"/>
       <c r="B236" s="15"/>
       <c r="C236" s="15"/>
@@ -40301,7 +40301,7 @@
       <c r="DG236" s="15"/>
       <c r="DH236" s="15"/>
     </row>
-    <row r="237" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A237" s="15"/>
       <c r="B237" s="15"/>
       <c r="C237" s="15"/>
@@ -40415,7 +40415,7 @@
       <c r="DG237" s="15"/>
       <c r="DH237" s="15"/>
     </row>
-    <row r="238" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A238" s="15"/>
       <c r="B238" s="15"/>
       <c r="C238" s="15"/>
@@ -40529,7 +40529,7 @@
       <c r="DG238" s="15"/>
       <c r="DH238" s="15"/>
     </row>
-    <row r="239" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A239" s="15"/>
       <c r="B239" s="15"/>
       <c r="C239" s="15"/>
@@ -40643,7 +40643,7 @@
       <c r="DG239" s="15"/>
       <c r="DH239" s="15"/>
     </row>
-    <row r="240" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A240" s="15"/>
       <c r="B240" s="15"/>
       <c r="C240" s="15"/>
@@ -40757,7 +40757,7 @@
       <c r="DG240" s="15"/>
       <c r="DH240" s="15"/>
     </row>
-    <row r="241" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A241" s="15"/>
       <c r="B241" s="15"/>
       <c r="C241" s="15"/>
@@ -40871,7 +40871,7 @@
       <c r="DG241" s="15"/>
       <c r="DH241" s="15"/>
     </row>
-    <row r="242" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A242" s="15"/>
       <c r="B242" s="15"/>
       <c r="C242" s="15"/>
@@ -40985,7 +40985,7 @@
       <c r="DG242" s="15"/>
       <c r="DH242" s="15"/>
     </row>
-    <row r="243" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A243" s="15"/>
       <c r="B243" s="15"/>
       <c r="C243" s="15"/>
@@ -41099,7 +41099,7 @@
       <c r="DG243" s="15"/>
       <c r="DH243" s="15"/>
     </row>
-    <row r="244" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A244" s="15"/>
       <c r="B244" s="15"/>
       <c r="C244" s="15"/>
@@ -41213,7 +41213,7 @@
       <c r="DG244" s="15"/>
       <c r="DH244" s="15"/>
     </row>
-    <row r="245" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A245" s="15"/>
       <c r="B245" s="15"/>
       <c r="C245" s="15"/>
@@ -41327,7 +41327,7 @@
       <c r="DG245" s="15"/>
       <c r="DH245" s="15"/>
     </row>
-    <row r="246" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A246" s="15"/>
       <c r="B246" s="15"/>
       <c r="C246" s="15"/>
@@ -41441,7 +41441,7 @@
       <c r="DG246" s="15"/>
       <c r="DH246" s="15"/>
     </row>
-    <row r="247" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A247" s="15"/>
       <c r="B247" s="15"/>
       <c r="C247" s="15"/>
@@ -41555,7 +41555,7 @@
       <c r="DG247" s="15"/>
       <c r="DH247" s="15"/>
     </row>
-    <row r="248" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A248" s="15"/>
       <c r="B248" s="15"/>
       <c r="C248" s="15"/>
@@ -41669,7 +41669,7 @@
       <c r="DG248" s="15"/>
       <c r="DH248" s="15"/>
     </row>
-    <row r="249" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A249" s="15"/>
       <c r="B249" s="15"/>
       <c r="C249" s="15"/>
@@ -41783,7 +41783,7 @@
       <c r="DG249" s="15"/>
       <c r="DH249" s="15"/>
     </row>
-    <row r="250" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A250" s="15"/>
       <c r="B250" s="15"/>
       <c r="C250" s="15"/>
@@ -41897,7 +41897,7 @@
       <c r="DG250" s="15"/>
       <c r="DH250" s="15"/>
     </row>
-    <row r="251" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A251" s="15"/>
       <c r="B251" s="15"/>
       <c r="C251" s="15"/>
@@ -42011,7 +42011,7 @@
       <c r="DG251" s="15"/>
       <c r="DH251" s="15"/>
     </row>
-    <row r="252" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A252" s="15"/>
       <c r="B252" s="15"/>
       <c r="C252" s="15"/>
@@ -42125,7 +42125,7 @@
       <c r="DG252" s="15"/>
       <c r="DH252" s="15"/>
     </row>
-    <row r="253" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A253" s="15"/>
       <c r="B253" s="15"/>
       <c r="C253" s="15"/>
@@ -42239,7 +42239,7 @@
       <c r="DG253" s="15"/>
       <c r="DH253" s="15"/>
     </row>
-    <row r="254" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A254" s="15"/>
       <c r="B254" s="15"/>
       <c r="C254" s="15"/>
@@ -42353,7 +42353,7 @@
       <c r="DG254" s="15"/>
       <c r="DH254" s="15"/>
     </row>
-    <row r="255" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A255" s="15"/>
       <c r="B255" s="15"/>
       <c r="C255" s="15"/>
@@ -42467,7 +42467,7 @@
       <c r="DG255" s="15"/>
       <c r="DH255" s="15"/>
     </row>
-    <row r="256" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A256" s="15"/>
       <c r="B256" s="15"/>
       <c r="C256" s="15"/>
@@ -42581,7 +42581,7 @@
       <c r="DG256" s="15"/>
       <c r="DH256" s="15"/>
     </row>
-    <row r="257" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A257" s="15"/>
       <c r="B257" s="15"/>
       <c r="C257" s="15"/>
@@ -42695,7 +42695,7 @@
       <c r="DG257" s="15"/>
       <c r="DH257" s="15"/>
     </row>
-    <row r="258" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A258" s="15"/>
       <c r="B258" s="15"/>
       <c r="C258" s="15"/>
@@ -42809,7 +42809,7 @@
       <c r="DG258" s="15"/>
       <c r="DH258" s="15"/>
     </row>
-    <row r="259" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A259" s="15"/>
       <c r="B259" s="15"/>
       <c r="C259" s="15"/>
@@ -42923,7 +42923,7 @@
       <c r="DG259" s="15"/>
       <c r="DH259" s="15"/>
     </row>
-    <row r="260" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A260" s="15"/>
       <c r="B260" s="15"/>
       <c r="C260" s="15"/>
@@ -43037,7 +43037,7 @@
       <c r="DG260" s="15"/>
       <c r="DH260" s="15"/>
     </row>
-    <row r="261" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A261" s="15"/>
       <c r="B261" s="15"/>
       <c r="C261" s="15"/>
@@ -43151,7 +43151,7 @@
       <c r="DG261" s="15"/>
       <c r="DH261" s="15"/>
     </row>
-    <row r="262" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A262" s="15"/>
       <c r="B262" s="15"/>
       <c r="C262" s="15"/>
@@ -43265,7 +43265,7 @@
       <c r="DG262" s="15"/>
       <c r="DH262" s="15"/>
     </row>
-    <row r="263" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A263" s="15"/>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -43379,7 +43379,7 @@
       <c r="DG263" s="15"/>
       <c r="DH263" s="15"/>
     </row>
-    <row r="264" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A264" s="15"/>
       <c r="B264" s="15"/>
       <c r="C264" s="15"/>
@@ -43493,7 +43493,7 @@
       <c r="DG264" s="15"/>
       <c r="DH264" s="15"/>
     </row>
-    <row r="265" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A265" s="15"/>
       <c r="B265" s="15"/>
       <c r="C265" s="15"/>
@@ -43607,7 +43607,7 @@
       <c r="DG265" s="15"/>
       <c r="DH265" s="15"/>
     </row>
-    <row r="266" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B266" s="15"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
@@ -43670,7 +43670,7 @@
       <c r="BI266" s="15"/>
       <c r="BJ266" s="15"/>
     </row>
-    <row r="267" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B267" s="15"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
@@ -43733,7 +43733,7 @@
       <c r="BI267" s="15"/>
       <c r="BJ267" s="15"/>
     </row>
-    <row r="268" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B268" s="15"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
@@ -43796,7 +43796,7 @@
       <c r="BI268" s="15"/>
       <c r="BJ268" s="15"/>
     </row>
-    <row r="269" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B269" s="15"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
@@ -43859,7 +43859,7 @@
       <c r="BI269" s="15"/>
       <c r="BJ269" s="15"/>
     </row>
-    <row r="270" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B270" s="15"/>
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
@@ -43922,7 +43922,7 @@
       <c r="BI270" s="15"/>
       <c r="BJ270" s="15"/>
     </row>
-    <row r="271" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B271" s="15"/>
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
@@ -43985,7 +43985,7 @@
       <c r="BI271" s="15"/>
       <c r="BJ271" s="15"/>
     </row>
-    <row r="272" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:112" x14ac:dyDescent="0.25">
       <c r="B272" s="15"/>
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
@@ -44063,33 +44063,33 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -44148,33 +44148,33 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -44231,32 +44231,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
